--- a/data/trans_orig/P65-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P65-Habitat-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4686</v>
+        <v>4633</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.003294980860346632</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01651714686585312</v>
+        <v>0.01632791084764063</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -765,19 +765,19 @@
         <v>7955</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3554</v>
+        <v>3483</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>14460</v>
+        <v>14551</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07262036832003284</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03244565454148687</v>
+        <v>0.03179586742440099</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1320118020745099</v>
+        <v>0.1328418524338702</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -786,19 +786,19 @@
         <v>8889</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3886</v>
+        <v>4115</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>15217</v>
+        <v>16429</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02260423209044112</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.009881126635273036</v>
+        <v>0.01046350777194447</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03869516373500163</v>
+        <v>0.04177565077575941</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>13727</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6945</v>
+        <v>7834</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>22813</v>
+        <v>23940</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04838098043643772</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02447773344181823</v>
+        <v>0.02761166874390287</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08040491155765864</v>
+        <v>0.08437542624990566</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -836,19 +836,19 @@
         <v>3895</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9133</v>
+        <v>9800</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03555770392129745</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.009370274791981057</v>
+        <v>0.009279049008412622</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08337485265201369</v>
+        <v>0.08947157556816913</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -857,19 +857,19 @@
         <v>17622</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10489</v>
+        <v>10632</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27032</v>
+        <v>27560</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04480930378381458</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02667238225817229</v>
+        <v>0.02703545988882407</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0687372607495272</v>
+        <v>0.07007956028937228</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>11618</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6721</v>
+        <v>5090</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20833</v>
+        <v>19836</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04094800479889705</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02368911807388875</v>
+        <v>0.01794080064761872</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07342621335584536</v>
+        <v>0.06991112381121269</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -907,19 +907,19 @@
         <v>2972</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8829</v>
+        <v>8137</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02712884848921163</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.008391406684245158</v>
+        <v>0.008408459467755111</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08060762144315492</v>
+        <v>0.0742876750918391</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>14</v>
@@ -928,19 +928,19 @@
         <v>14590</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8327</v>
+        <v>8800</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23497</v>
+        <v>25134</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03709894501359356</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02117315232529881</v>
+        <v>0.02237601397148869</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05974769624735948</v>
+        <v>0.06391074416100898</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>64006</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>49649</v>
+        <v>50128</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>79079</v>
+        <v>79262</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2255877242205982</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1749863248524374</v>
+        <v>0.1766755125108034</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2787118846887395</v>
+        <v>0.2793596542626295</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -978,19 +978,19 @@
         <v>19890</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13113</v>
+        <v>13482</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>29483</v>
+        <v>29108</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1815801719759966</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1197176223282512</v>
+        <v>0.1230800316109049</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2691621127070353</v>
+        <v>0.2657434153940089</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>82</v>
@@ -999,19 +999,19 @@
         <v>83895</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>69186</v>
+        <v>68653</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>100814</v>
+        <v>102383</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2133302682805695</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1759277507124791</v>
+        <v>0.1745717613566448</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2563512353935974</v>
+        <v>0.260341240481445</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>136182</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>119012</v>
+        <v>119342</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>153121</v>
+        <v>155210</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4799717820317322</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4194555297591009</v>
+        <v>0.4206203660465807</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5396744538425742</v>
+        <v>0.547035007938499</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>48</v>
@@ -1049,19 +1049,19 @@
         <v>49465</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>38116</v>
+        <v>39665</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>59314</v>
+        <v>60099</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4515823891265898</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3479746166852265</v>
+        <v>0.362120426179694</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.541497836404389</v>
+        <v>0.5486656263653482</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>178</v>
@@ -1070,19 +1070,19 @@
         <v>185646</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>165915</v>
+        <v>165271</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>205657</v>
+        <v>206718</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4720644635159283</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4218919035708448</v>
+        <v>0.4202524040619682</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5229467832752283</v>
+        <v>0.5256443491420016</v>
       </c>
     </row>
     <row r="9">
@@ -1099,19 +1099,19 @@
         <v>57261</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>44759</v>
+        <v>44814</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>70366</v>
+        <v>70763</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2018165276519882</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1577541799638323</v>
+        <v>0.1579459660585013</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2480059346706375</v>
+        <v>0.2494034634181085</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>23</v>
@@ -1120,19 +1120,19 @@
         <v>25361</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>17617</v>
+        <v>17117</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>35786</v>
+        <v>35592</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2315305181668717</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1608343919956168</v>
+        <v>0.1562723632062607</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3267096008138403</v>
+        <v>0.3249324171741829</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>80</v>
@@ -1141,19 +1141,19 @@
         <v>82622</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>67153</v>
+        <v>66509</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>98829</v>
+        <v>99979</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2100927873156529</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1707575368138369</v>
+        <v>0.1691207444981144</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2513039822709991</v>
+        <v>0.2542288446299769</v>
       </c>
     </row>
     <row r="10">
@@ -1245,19 +1245,19 @@
         <v>38974</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>28359</v>
+        <v>28315</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>53819</v>
+        <v>54691</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08474619768458506</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06166590781645245</v>
+        <v>0.06156903614227691</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1170261048505713</v>
+        <v>0.1189233252476233</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -1266,19 +1266,19 @@
         <v>14568</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8494</v>
+        <v>8296</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23059</v>
+        <v>23952</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07250894121174778</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04227832740869091</v>
+        <v>0.04129105055539565</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1147706285773107</v>
+        <v>0.1192182320928824</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>49</v>
@@ -1287,19 +1287,19 @@
         <v>53542</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>38255</v>
+        <v>40728</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>68252</v>
+        <v>69300</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08102552240045569</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05789224911100323</v>
+        <v>0.06163468190289583</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1032867062640856</v>
+        <v>0.1048726074491477</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>29442</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>20134</v>
+        <v>19743</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>42093</v>
+        <v>44548</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06401983245354098</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04378129958343726</v>
+        <v>0.04293044223825494</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09152839785421854</v>
+        <v>0.09686834209301803</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>18</v>
@@ -1337,19 +1337,19 @@
         <v>20245</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12375</v>
+        <v>12308</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>31348</v>
+        <v>31517</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1007632433963043</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06159503188246026</v>
+        <v>0.06125908890742539</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1560271795072178</v>
+        <v>0.1568689496393358</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>43</v>
@@ -1358,19 +1358,19 @@
         <v>49686</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>35839</v>
+        <v>36686</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>64802</v>
+        <v>66188</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07519147874965323</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05423591993950683</v>
+        <v>0.05551708601670657</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09806590615065426</v>
+        <v>0.1001631538946785</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>44628</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>32545</v>
+        <v>30703</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>62286</v>
+        <v>61018</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09704151732920505</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07076741626967106</v>
+        <v>0.06676168544042611</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1354375982665103</v>
+        <v>0.1326815682375243</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>13</v>
@@ -1408,19 +1408,19 @@
         <v>14646</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>7618</v>
+        <v>7786</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>23890</v>
+        <v>24325</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07289734009075263</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03791486392571607</v>
+        <v>0.03875121418323835</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1189054743379779</v>
+        <v>0.1210743810225901</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -1429,19 +1429,19 @@
         <v>59274</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>43986</v>
+        <v>44239</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>77537</v>
+        <v>77354</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08970060364433227</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06656549060255121</v>
+        <v>0.06694741769841979</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1173378788596745</v>
+        <v>0.1170619960323992</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>117654</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>99688</v>
+        <v>99038</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>137847</v>
+        <v>137926</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2558319884407891</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2167674431912019</v>
+        <v>0.2153532083790826</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2997421052596612</v>
+        <v>0.2999127615463427</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>33</v>
@@ -1479,19 +1479,19 @@
         <v>33107</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>23344</v>
+        <v>23937</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>43846</v>
+        <v>45361</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1647831362505446</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1161902751636658</v>
+        <v>0.1191395514015595</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2182351000101277</v>
+        <v>0.2257734008005478</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>140</v>
@@ -1500,19 +1500,19 @@
         <v>150760</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>128419</v>
+        <v>126772</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>173772</v>
+        <v>173441</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2281490502965624</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1943397742048357</v>
+        <v>0.1918468527482789</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2629736931895779</v>
+        <v>0.2624715093254014</v>
       </c>
     </row>
     <row r="15">
@@ -1529,19 +1529,19 @@
         <v>164366</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>141773</v>
+        <v>142652</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>186118</v>
+        <v>186346</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3574066808931947</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3082790743352719</v>
+        <v>0.3101906988427441</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4047049092937465</v>
+        <v>0.4052002026118272</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>70</v>
@@ -1550,19 +1550,19 @@
         <v>73838</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>61203</v>
+        <v>61094</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>87962</v>
+        <v>88247</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3675117274620459</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3046281786248784</v>
+        <v>0.3040842494782948</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.437812858485209</v>
+        <v>0.4392342591947552</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>220</v>
@@ -1571,19 +1571,19 @@
         <v>238204</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>215266</v>
+        <v>212156</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>266412</v>
+        <v>264320</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3604790686540589</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3257664774788485</v>
+        <v>0.3210610028675636</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4031663557301729</v>
+        <v>0.4000007757633744</v>
       </c>
     </row>
     <row r="16">
@@ -1600,19 +1600,19 @@
         <v>64823</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>50461</v>
+        <v>49819</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>81502</v>
+        <v>80282</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1409537831986851</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1097241741166794</v>
+        <v>0.1083288411509412</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1772211012223985</v>
+        <v>0.1745689562779167</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>39</v>
@@ -1621,19 +1621,19 @@
         <v>44509</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>33498</v>
+        <v>32848</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>57755</v>
+        <v>57935</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2215356115886048</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1667274344029513</v>
+        <v>0.163495340028637</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2874652967724292</v>
+        <v>0.2883600263562261</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>100</v>
@@ -1642,19 +1642,19 @@
         <v>109332</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>91417</v>
+        <v>91472</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>129172</v>
+        <v>129185</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1654542762549375</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1383435744280218</v>
+        <v>0.1384261104778436</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1954792061015266</v>
+        <v>0.1954982431131926</v>
       </c>
     </row>
     <row r="17">
@@ -1746,19 +1746,19 @@
         <v>37406</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26091</v>
+        <v>26580</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>52636</v>
+        <v>51790</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1153727423505196</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08047335459550774</v>
+        <v>0.08198145580162816</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1623475935351084</v>
+        <v>0.159738544767055</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -1767,19 +1767,19 @@
         <v>16142</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9507</v>
+        <v>10037</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>24094</v>
+        <v>25141</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08613252103762915</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05073075914643465</v>
+        <v>0.0535582165867878</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1285658134186926</v>
+        <v>0.1341520165639981</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>50</v>
@@ -1788,19 +1788,19 @@
         <v>53548</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>40784</v>
+        <v>41046</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>68495</v>
+        <v>70172</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1046622040912999</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07971440320809779</v>
+        <v>0.08022676427460665</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1338777290975334</v>
+        <v>0.1371552187011889</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>26879</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17720</v>
+        <v>17394</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>39252</v>
+        <v>37791</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08290326690566086</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05465471421600188</v>
+        <v>0.05364953103133671</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1210670950858644</v>
+        <v>0.1165583472766051</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -1838,19 +1838,19 @@
         <v>15441</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>8846</v>
+        <v>9474</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>24416</v>
+        <v>24498</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08239194889154873</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04720250542221017</v>
+        <v>0.05055326376619458</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1302851129024438</v>
+        <v>0.1307203230288615</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>39</v>
@@ -1859,19 +1859,19 @@
         <v>42320</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30647</v>
+        <v>30214</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>56930</v>
+        <v>57607</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08271597382418333</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.059900887006643</v>
+        <v>0.05905493963895267</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1112730175647772</v>
+        <v>0.1125963021740296</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>16879</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9719</v>
+        <v>9952</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26850</v>
+        <v>26440</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05205994458823587</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02997688768750587</v>
+        <v>0.03069368833879603</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08281263818640112</v>
+        <v>0.08155094797495292</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -1909,19 +1909,19 @@
         <v>16002</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9779</v>
+        <v>9107</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>24940</v>
+        <v>24611</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08538830928170792</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05218177880790827</v>
+        <v>0.04859497377821631</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.133077973562952</v>
+        <v>0.1313251038535344</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>32</v>
@@ -1930,19 +1930,19 @@
         <v>32881</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>23118</v>
+        <v>22829</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>46747</v>
+        <v>44287</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06426794812373901</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04518545558680989</v>
+        <v>0.04462143343805541</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09136858612011736</v>
+        <v>0.08656074010537007</v>
       </c>
     </row>
     <row r="21">
@@ -1959,19 +1959,19 @@
         <v>87390</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>70673</v>
+        <v>70884</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>102289</v>
+        <v>104101</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2695384586513107</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2179773459209243</v>
+        <v>0.2186293070494698</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3154922351366929</v>
+        <v>0.3210808596063845</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>40</v>
@@ -1980,19 +1980,19 @@
         <v>39178</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>28993</v>
+        <v>29469</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>52299</v>
+        <v>51321</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2090522570726083</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1547077574795208</v>
+        <v>0.1572467781486312</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2790679879352076</v>
+        <v>0.2738478884595286</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>125</v>
@@ -2001,19 +2001,19 @@
         <v>126567</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>108857</v>
+        <v>106912</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>147487</v>
+        <v>145989</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2473826832475872</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2127669923257226</v>
+        <v>0.2089657757055786</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2882709986189023</v>
+        <v>0.2853427813934392</v>
       </c>
     </row>
     <row r="22">
@@ -2030,19 +2030,19 @@
         <v>111810</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>92975</v>
+        <v>94628</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>128618</v>
+        <v>130025</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.344859585794097</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2867650999489976</v>
+        <v>0.2918620698141246</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3967009331569845</v>
+        <v>0.4010383640293913</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>77</v>
@@ -2051,19 +2051,19 @@
         <v>77306</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>62690</v>
+        <v>62801</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>91576</v>
+        <v>90597</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4125063779636141</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3345118536851382</v>
+        <v>0.3351085626620634</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4886505936719089</v>
+        <v>0.4834268820372948</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>183</v>
@@ -2072,19 +2072,19 @@
         <v>189117</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>165521</v>
+        <v>167676</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>210988</v>
+        <v>210575</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3696382476206301</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3235195716431192</v>
+        <v>0.3277308331816051</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4123865750469344</v>
+        <v>0.4115804709233278</v>
       </c>
     </row>
     <row r="23">
@@ -2101,19 +2101,19 @@
         <v>43856</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>31984</v>
+        <v>32379</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>58303</v>
+        <v>58537</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1352660017101759</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09865059842403953</v>
+        <v>0.09986878934507407</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1798250378271982</v>
+        <v>0.1805476236934954</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>21</v>
@@ -2122,19 +2122,19 @@
         <v>23337</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>14738</v>
+        <v>14712</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>34076</v>
+        <v>35348</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1245285857528919</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07864241040313261</v>
+        <v>0.07850533029682684</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1818302224116727</v>
+        <v>0.1886181455518473</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>60</v>
@@ -2143,19 +2143,19 @@
         <v>67193</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>52709</v>
+        <v>51009</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>84461</v>
+        <v>84551</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1313329430925604</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.103022297110155</v>
+        <v>0.09970055620497431</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1650843746411342</v>
+        <v>0.1652592697763727</v>
       </c>
     </row>
     <row r="24">
@@ -2247,19 +2247,19 @@
         <v>35845</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>26418</v>
+        <v>26304</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>48640</v>
+        <v>48291</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0830881067840174</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06123595673729156</v>
+        <v>0.0609707949374603</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.112746500313414</v>
+        <v>0.1119369447675476</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -2268,19 +2268,19 @@
         <v>14567</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8073</v>
+        <v>8247</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>24152</v>
+        <v>23365</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05108689723621342</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0283119832775516</v>
+        <v>0.0289214490188216</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08470207867506505</v>
+        <v>0.08194240027082718</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>53</v>
@@ -2289,19 +2289,19 @@
         <v>50412</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>37685</v>
+        <v>37513</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>65159</v>
+        <v>64993</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0703537249854031</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05259180820769849</v>
+        <v>0.05235184574813698</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09093430653633003</v>
+        <v>0.09070222971188864</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>48731</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>35638</v>
+        <v>36850</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>62136</v>
+        <v>63732</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1129562789508073</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08260814300411094</v>
+        <v>0.08541663475681717</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1440304129304158</v>
+        <v>0.1477286741151202</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>17</v>
@@ -2339,19 +2339,19 @@
         <v>16799</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9838</v>
+        <v>9952</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>26047</v>
+        <v>26145</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05891600447908003</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03450199107512553</v>
+        <v>0.03490341187187374</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09134741372816996</v>
+        <v>0.09169119692934541</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>66</v>
@@ -2360,19 +2360,19 @@
         <v>65530</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>51122</v>
+        <v>50787</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>81802</v>
+        <v>82656</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09145179529693523</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07134434237899354</v>
+        <v>0.07087675998171432</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1141597492306283</v>
+        <v>0.1153525412349057</v>
       </c>
     </row>
     <row r="27">
@@ -2389,19 +2389,19 @@
         <v>31774</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>21807</v>
+        <v>22207</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>42940</v>
+        <v>43193</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.07365145496095443</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05054681948582253</v>
+        <v>0.05147513049026488</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09953478207346335</v>
+        <v>0.1001203285618976</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>24</v>
@@ -2410,19 +2410,19 @@
         <v>25055</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>16532</v>
+        <v>16309</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>35855</v>
+        <v>35496</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.08786839287314442</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05797870007543625</v>
+        <v>0.05719502153744466</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1257456102623449</v>
+        <v>0.1244853403176169</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>58</v>
@@ -2431,19 +2431,19 @@
         <v>56829</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>43204</v>
+        <v>43434</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>71230</v>
+        <v>71865</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.07930886347579745</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.06029452005687326</v>
+        <v>0.06061586638223353</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.09940628133605654</v>
+        <v>0.1002922203211704</v>
       </c>
     </row>
     <row r="28">
@@ -2460,19 +2460,19 @@
         <v>101874</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>84792</v>
+        <v>85492</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>120417</v>
+        <v>119841</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2361405146827222</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1965459417953246</v>
+        <v>0.1981688020428174</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2791220100115432</v>
+        <v>0.277787460478191</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>46</v>
@@ -2481,19 +2481,19 @@
         <v>47561</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>35553</v>
+        <v>35815</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>61631</v>
+        <v>61332</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1667980614278878</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1246861700538366</v>
+        <v>0.1256052154711926</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2161433335958917</v>
+        <v>0.2150948770921314</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>153</v>
@@ -2502,19 +2502,19 @@
         <v>149435</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>129981</v>
+        <v>128787</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>171903</v>
+        <v>171428</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2085467678501053</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1813978929172211</v>
+        <v>0.1797307259216922</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.239903227465733</v>
+        <v>0.2392404565154008</v>
       </c>
     </row>
     <row r="29">
@@ -2531,19 +2531,19 @@
         <v>160114</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>143003</v>
+        <v>140558</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>179231</v>
+        <v>180661</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3711397424836808</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3314769965958987</v>
+        <v>0.3258095653777695</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4154526055909534</v>
+        <v>0.4187669300067743</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>95</v>
@@ -2552,19 +2552,19 @@
         <v>101681</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>84610</v>
+        <v>84817</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>117375</v>
+        <v>117743</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3566004803690445</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2967312185601639</v>
+        <v>0.2974564009134371</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.411636848365347</v>
+        <v>0.4129306982963248</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>259</v>
@@ -2573,19 +2573,19 @@
         <v>261796</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>237437</v>
+        <v>237153</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>288598</v>
+        <v>291121</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3653540700839757</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3313605182145261</v>
+        <v>0.3309639510029229</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4027588012098171</v>
+        <v>0.4062796572788533</v>
       </c>
     </row>
     <row r="30">
@@ -2602,19 +2602,19 @@
         <v>53074</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>39923</v>
+        <v>41918</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>67165</v>
+        <v>68255</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1230239021378179</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.09253982548301594</v>
+        <v>0.0971652113179947</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1556872489007925</v>
+        <v>0.1582127570666303</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>72</v>
@@ -2623,19 +2623,19 @@
         <v>79477</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>64669</v>
+        <v>65219</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>96362</v>
+        <v>96045</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2787301636146299</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2267957638399868</v>
+        <v>0.2287259435681107</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3379437797583933</v>
+        <v>0.3368326480506234</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>125</v>
@@ -2644,19 +2644,19 @@
         <v>132551</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>112814</v>
+        <v>112351</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>156799</v>
+        <v>154228</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1849847783077833</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1574401418971146</v>
+        <v>0.156793228709218</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2188244130449751</v>
+        <v>0.2152366791642081</v>
       </c>
     </row>
     <row r="31">
@@ -2748,19 +2748,19 @@
         <v>113160</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>93576</v>
+        <v>92498</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>134748</v>
+        <v>136903</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.07547778625824053</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.06241566039043118</v>
+        <v>0.06169630471186634</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.08987717600189844</v>
+        <v>0.09131418903357975</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>53</v>
@@ -2769,19 +2769,19 @@
         <v>53231</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>40997</v>
+        <v>41003</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>71290</v>
+        <v>69563</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06798406087643157</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05235931057872594</v>
+        <v>0.05236661133935292</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.09104807106180261</v>
+        <v>0.08884252254880741</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>161</v>
@@ -2790,19 +2790,19 @@
         <v>166391</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>143159</v>
+        <v>141691</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>193199</v>
+        <v>191372</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.07290682565299088</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.0627274524206589</v>
+        <v>0.06208427604522267</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.08465318535166022</v>
+        <v>0.08385262674103683</v>
       </c>
     </row>
     <row r="33">
@@ -2819,19 +2819,19 @@
         <v>118779</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>100427</v>
+        <v>98108</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>142725</v>
+        <v>143652</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.07922545166869011</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.06698502176952693</v>
+        <v>0.06543808961272132</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.09519750252393397</v>
+        <v>0.09581629494190801</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>55</v>
@@ -2840,19 +2840,19 @@
         <v>56380</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>43823</v>
+        <v>44057</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>73073</v>
+        <v>72776</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.07200491816067331</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.05596834721400939</v>
+        <v>0.05626770650211753</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.09332502015319877</v>
+        <v>0.09294512116834734</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>165</v>
@@ -2861,19 +2861,19 @@
         <v>175158</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>152049</v>
+        <v>150350</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>203085</v>
+        <v>203301</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.07674821821641285</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.06662248466652375</v>
+        <v>0.06587807660061673</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.08898487895755888</v>
+        <v>0.08907934255354806</v>
       </c>
     </row>
     <row r="34">
@@ -2890,19 +2890,19 @@
         <v>104899</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>84815</v>
+        <v>86418</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>128199</v>
+        <v>126745</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06996789457709272</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0565716172979796</v>
+        <v>0.05764103990642182</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08550893812539707</v>
+        <v>0.08453912685681705</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>56</v>
@@ -2911,19 +2911,19 @@
         <v>58675</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>44863</v>
+        <v>44851</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>73994</v>
+        <v>74229</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.07493621028594234</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.0572959826294453</v>
+        <v>0.057281594033817</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09450148771002091</v>
+        <v>0.09480157136421379</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>153</v>
@@ -2932,19 +2932,19 @@
         <v>163574</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>139087</v>
+        <v>140040</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>189454</v>
+        <v>192653</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.07167243314917635</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.06094330850971323</v>
+        <v>0.06136059043976967</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.08301218077251937</v>
+        <v>0.08441380715916913</v>
       </c>
     </row>
     <row r="35">
@@ -2961,19 +2961,19 @@
         <v>370923</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>337466</v>
+        <v>336190</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>407852</v>
+        <v>405365</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2474061596318561</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2250902142983409</v>
+        <v>0.224239439335159</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2720379460050763</v>
+        <v>0.2703793491532644</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>140</v>
@@ -2982,19 +2982,19 @@
         <v>139735</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>120904</v>
+        <v>120542</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>161737</v>
+        <v>162520</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1784622944087193</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1544120151934696</v>
+        <v>0.153949828354141</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2065613642033876</v>
+        <v>0.2075621186478608</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>500</v>
@@ -3003,19 +3003,19 @@
         <v>510658</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>470264</v>
+        <v>471906</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>552379</v>
+        <v>551899</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2237527759766975</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2060532458156124</v>
+        <v>0.2067730571603392</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2420332156493292</v>
+        <v>0.2418229819916201</v>
       </c>
     </row>
     <row r="36">
@@ -3032,19 +3032,19 @@
         <v>572473</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>535444</v>
+        <v>531031</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>611275</v>
+        <v>608248</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3818401794730417</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3571418735674443</v>
+        <v>0.3541983032856437</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4077215288635487</v>
+        <v>0.4057022994152651</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>290</v>
@@ -3053,19 +3053,19 @@
         <v>302290</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>275405</v>
+        <v>275456</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>329678</v>
+        <v>330539</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3860684344642973</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.3517322258927956</v>
+        <v>0.3517973659050466</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4210467201789942</v>
+        <v>0.4221463029529139</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>840</v>
@@ -3074,19 +3074,19 @@
         <v>874763</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>825099</v>
+        <v>828516</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>921035</v>
+        <v>922751</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3832908167005357</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3615300740581817</v>
+        <v>0.3630271052703091</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.403565687523477</v>
+        <v>0.404317794410554</v>
       </c>
     </row>
     <row r="37">
@@ -3103,19 +3103,19 @@
         <v>219014</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>191736</v>
+        <v>192192</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>246110</v>
+        <v>248358</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1460825283910789</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1278879152464593</v>
+        <v>0.1281926093034718</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.164155961098303</v>
+        <v>0.1656551052706032</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>155</v>
@@ -3124,19 +3124,19 @@
         <v>172685</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>149259</v>
+        <v>149453</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>198074</v>
+        <v>197210</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2205440818039362</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1906251388713717</v>
+        <v>0.1908727610501727</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.252968919472262</v>
+        <v>0.2518656539796661</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>365</v>
@@ -3145,19 +3145,19 @@
         <v>391699</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>354755</v>
+        <v>356746</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>431125</v>
+        <v>432611</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1716289303041867</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1554415028683845</v>
+        <v>0.1563136907661438</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1889040268554171</v>
+        <v>0.1895550151137092</v>
       </c>
     </row>
     <row r="38">
@@ -3489,19 +3489,19 @@
         <v>22725</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13390</v>
+        <v>14017</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35161</v>
+        <v>35508</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08945802326944556</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05271175535673298</v>
+        <v>0.05518094198762495</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.138413990753507</v>
+        <v>0.1397822554726171</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -3510,19 +3510,19 @@
         <v>12585</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7002</v>
+        <v>6559</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>23447</v>
+        <v>21712</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08718221855175083</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04850805096606367</v>
+        <v>0.04543876823668649</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1624315447294665</v>
+        <v>0.1504130900871569</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -3531,19 +3531,19 @@
         <v>35309</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24240</v>
+        <v>23740</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51159</v>
+        <v>51658</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08863339988456627</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06084832289232119</v>
+        <v>0.05959250868502838</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1284206795349065</v>
+        <v>0.1296737802526393</v>
       </c>
     </row>
     <row r="5">
@@ -3560,19 +3560,19 @@
         <v>15335</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9115</v>
+        <v>8468</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25234</v>
+        <v>24426</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06036814443292595</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03588182202019296</v>
+        <v>0.03333390321944144</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09933690487794124</v>
+        <v>0.09615524978173888</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -3581,19 +3581,19 @@
         <v>5257</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2017</v>
+        <v>2025</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11637</v>
+        <v>11133</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03642003823170346</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01397348456150714</v>
+        <v>0.01402787617606104</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08061430470831189</v>
+        <v>0.07712802394490735</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -3602,19 +3602,19 @@
         <v>20592</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>13089</v>
+        <v>12449</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>31358</v>
+        <v>31809</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05169070025524414</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03285735896146146</v>
+        <v>0.03124970281375086</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07871445854996219</v>
+        <v>0.07984866667328631</v>
       </c>
     </row>
     <row r="6">
@@ -3631,19 +3631,19 @@
         <v>8815</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4544</v>
+        <v>4227</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16081</v>
+        <v>15476</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0347032313377291</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01788680004161222</v>
+        <v>0.016638427910772</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06330650550476827</v>
+        <v>0.06092439309564163</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -3652,19 +3652,19 @@
         <v>6571</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1953</v>
+        <v>2045</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14818</v>
+        <v>15243</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04552160295947807</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01352849728156405</v>
+        <v>0.01416527304692171</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1026568800187545</v>
+        <v>0.1056005582593845</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>15</v>
@@ -3673,19 +3673,19 @@
         <v>15386</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8931</v>
+        <v>9149</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>25885</v>
+        <v>25611</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0386231995829155</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02241999281690319</v>
+        <v>0.02296546191923281</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06497658079620791</v>
+        <v>0.06428928778398425</v>
       </c>
     </row>
     <row r="7">
@@ -3702,19 +3702,19 @@
         <v>35192</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25288</v>
+        <v>24919</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48077</v>
+        <v>47266</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1385390577138169</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09954956193588466</v>
+        <v>0.09809797343268538</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1892595897467733</v>
+        <v>0.1860664333585554</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>21</v>
@@ -3723,19 +3723,19 @@
         <v>21763</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14188</v>
+        <v>14144</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32561</v>
+        <v>31586</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1507683488789212</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09828902061551296</v>
+        <v>0.097985540425767</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2255702475295059</v>
+        <v>0.2188151288519737</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>56</v>
@@ -3744,19 +3744,19 @@
         <v>56955</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>43638</v>
+        <v>44752</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>73102</v>
+        <v>72263</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1429702636942043</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1095412923204203</v>
+        <v>0.1123376997470299</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1835016258070329</v>
+        <v>0.1813962855470163</v>
       </c>
     </row>
     <row r="8">
@@ -3773,19 +3773,19 @@
         <v>112023</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>96513</v>
+        <v>94344</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>128415</v>
+        <v>126868</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4409918151962201</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3799346666494201</v>
+        <v>0.3713950250388547</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.50552034309467</v>
+        <v>0.4994320237524542</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>45</v>
@@ -3794,19 +3794,19 @@
         <v>46824</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>35020</v>
+        <v>35198</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>59652</v>
+        <v>58262</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3243861728527888</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2426105222928342</v>
+        <v>0.2438408734453923</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4132542920084434</v>
+        <v>0.4036211981207417</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>155</v>
@@ -3815,19 +3815,19 @@
         <v>158847</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>139987</v>
+        <v>138662</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>178314</v>
+        <v>179683</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3987405013037586</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3513969860152464</v>
+        <v>0.3480727579142248</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4476064304710803</v>
+        <v>0.4510426387580315</v>
       </c>
     </row>
     <row r="9">
@@ -3844,19 +3844,19 @@
         <v>59935</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>46982</v>
+        <v>47594</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>73477</v>
+        <v>75945</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2359397280498624</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1849487547633093</v>
+        <v>0.1873588444377507</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2892525347149242</v>
+        <v>0.2989667679137569</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>47</v>
@@ -3865,19 +3865,19 @@
         <v>51348</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>39859</v>
+        <v>39441</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>63787</v>
+        <v>63432</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3557216185253577</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2761342685040105</v>
+        <v>0.2732327210158673</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4418997325252019</v>
+        <v>0.4394408796062689</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>107</v>
@@ -3886,19 +3886,19 @@
         <v>111282</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>93990</v>
+        <v>93797</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>131005</v>
+        <v>129970</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2793419352793112</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2359351848971867</v>
+        <v>0.2354496947217456</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3288497493719987</v>
+        <v>0.326253784337104</v>
       </c>
     </row>
     <row r="10">
@@ -3990,19 +3990,19 @@
         <v>26612</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17387</v>
+        <v>18080</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38470</v>
+        <v>38848</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07334595973053425</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04792108742933705</v>
+        <v>0.04983177218326669</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1060279409605872</v>
+        <v>0.1070715558316455</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -4011,19 +4011,19 @@
         <v>9598</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4658</v>
+        <v>4879</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17192</v>
+        <v>17095</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04111523995797658</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01995232838095051</v>
+        <v>0.0209022650626816</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07364650293229623</v>
+        <v>0.07323188788970406</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>33</v>
@@ -4032,19 +4032,19 @@
         <v>36210</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>25023</v>
+        <v>26172</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>49441</v>
+        <v>49591</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06072744840873612</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04196573117546203</v>
+        <v>0.04389196410774157</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08291689794402035</v>
+        <v>0.0831681907438698</v>
       </c>
     </row>
     <row r="12">
@@ -4061,19 +4061,19 @@
         <v>20246</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12721</v>
+        <v>12177</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>32372</v>
+        <v>32885</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0558007104552835</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03506101845306121</v>
+        <v>0.03356101858583051</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08922255123482184</v>
+        <v>0.09063504132689749</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -4082,19 +4082,19 @@
         <v>12540</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7095</v>
+        <v>7249</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>20874</v>
+        <v>21178</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.05371840611202458</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03039360408985988</v>
+        <v>0.03105192624496298</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08941899504925706</v>
+        <v>0.09072171991370147</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>30</v>
@@ -4103,19 +4103,19 @@
         <v>32786</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>22608</v>
+        <v>22298</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>46479</v>
+        <v>46271</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05498547638306107</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03791522319610401</v>
+        <v>0.03739624469269322</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07794939991798394</v>
+        <v>0.07760057727973863</v>
       </c>
     </row>
     <row r="13">
@@ -4132,19 +4132,19 @@
         <v>15419</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8771</v>
+        <v>9048</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23691</v>
+        <v>24275</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04249611542772103</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02417315703404443</v>
+        <v>0.02493760593888785</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.065295659299863</v>
+        <v>0.06690647058792705</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -4153,19 +4153,19 @@
         <v>16879</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10655</v>
+        <v>10532</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>26670</v>
+        <v>26135</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07230628971974982</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04564146551116291</v>
+        <v>0.04511685623197657</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1142458762939236</v>
+        <v>0.1119554967171461</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>31</v>
@@ -4174,19 +4174,19 @@
         <v>32298</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>23188</v>
+        <v>23368</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45788</v>
+        <v>46333</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05416696933552038</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03888875674418658</v>
+        <v>0.0391901943083476</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07679001179913521</v>
+        <v>0.07770478330789723</v>
       </c>
     </row>
     <row r="14">
@@ -4203,19 +4203,19 @@
         <v>71093</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>57057</v>
+        <v>57182</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>87749</v>
+        <v>88376</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1959429756173127</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1572576795256775</v>
+        <v>0.1576025390968955</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.241848578327563</v>
+        <v>0.2435769131974209</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>37</v>
@@ -4224,19 +4224,19 @@
         <v>41362</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>30106</v>
+        <v>29357</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>54424</v>
+        <v>54603</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1771806265620312</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1289654710832311</v>
+        <v>0.1257573707773441</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2331362280245858</v>
+        <v>0.2339042438366248</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>103</v>
@@ -4245,19 +4245,19 @@
         <v>112455</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>93859</v>
+        <v>94295</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>134293</v>
+        <v>133873</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1885974085419172</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1574098885312297</v>
+        <v>0.1581419420796751</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.225222074202984</v>
+        <v>0.2245162487250509</v>
       </c>
     </row>
     <row r="15">
@@ -4274,19 +4274,19 @@
         <v>143309</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>126092</v>
+        <v>125532</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>163517</v>
+        <v>164048</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3949796716148519</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3475254837503217</v>
+        <v>0.3459827103230995</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4506757471337424</v>
+        <v>0.452138094099406</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>77</v>
@@ -4295,19 +4295,19 @@
         <v>87569</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>71983</v>
+        <v>73247</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>103592</v>
+        <v>102309</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3751188606079675</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.3083551581148648</v>
+        <v>0.3137679841650053</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4437589838643068</v>
+        <v>0.4382631461039683</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>209</v>
@@ -4316,19 +4316,19 @@
         <v>230879</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>208130</v>
+        <v>206846</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>257610</v>
+        <v>255535</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.3872040503963694</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3490527543351388</v>
+        <v>0.3468985409696646</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.4320357431231127</v>
+        <v>0.4285553568394189</v>
       </c>
     </row>
     <row r="16">
@@ -4345,19 +4345,19 @@
         <v>86148</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>69599</v>
+        <v>70150</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>102835</v>
+        <v>103345</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2374345671542965</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1918243262437004</v>
+        <v>0.1933425375573399</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2834283258159608</v>
+        <v>0.2848331003455091</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>60</v>
@@ -4366,19 +4366,19 @@
         <v>65495</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>52501</v>
+        <v>52816</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>81235</v>
+        <v>80495</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2805605770402504</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2248993151160681</v>
+        <v>0.2262496119487779</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3479870509101072</v>
+        <v>0.344817040984984</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>138</v>
@@ -4387,19 +4387,19 @@
         <v>151643</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>130408</v>
+        <v>131375</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>175291</v>
+        <v>175222</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2543186469343958</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2187057324011022</v>
+        <v>0.2203281667645565</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2939793383239852</v>
+        <v>0.2938627351833665</v>
       </c>
     </row>
     <row r="17">
@@ -4491,19 +4491,19 @@
         <v>24493</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16325</v>
+        <v>16213</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>37374</v>
+        <v>36433</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.08657635246892957</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05770573483189477</v>
+        <v>0.05730899525626135</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1321068816428805</v>
+        <v>0.1287812168225693</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>11</v>
@@ -4512,19 +4512,19 @@
         <v>13527</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6978</v>
+        <v>7005</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>23890</v>
+        <v>23575</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.07030206144278901</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03626689535636902</v>
+        <v>0.03640447922556832</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1241593615661353</v>
+        <v>0.1225209022353875</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>33</v>
@@ -4533,19 +4533,19 @@
         <v>38020</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>27272</v>
+        <v>27855</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>51608</v>
+        <v>52680</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07998833596544463</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05737660311364214</v>
+        <v>0.05860217264254432</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.108574290125026</v>
+        <v>0.1108302131988155</v>
       </c>
     </row>
     <row r="19">
@@ -4562,19 +4562,19 @@
         <v>19573</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>11760</v>
+        <v>11807</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>31244</v>
+        <v>31150</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06918438645985876</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04156698962174612</v>
+        <v>0.04173643506435276</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.110439212063636</v>
+        <v>0.1101090590213283</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>17</v>
@@ -4583,19 +4583,19 @@
         <v>17852</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11096</v>
+        <v>10833</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27796</v>
+        <v>27146</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0927786478330274</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05766760722955839</v>
+        <v>0.05629989290254527</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1444597886738125</v>
+        <v>0.1410820080476917</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>35</v>
@@ -4604,19 +4604,19 @@
         <v>37425</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>26501</v>
+        <v>25655</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>52062</v>
+        <v>49826</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07873560949404795</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05575318106366629</v>
+        <v>0.05397340594456378</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1095308627385493</v>
+        <v>0.1048271267103227</v>
       </c>
     </row>
     <row r="20">
@@ -4633,19 +4633,19 @@
         <v>17211</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9816</v>
+        <v>9896</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>27388</v>
+        <v>27478</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0608358158263319</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0346971637106907</v>
+        <v>0.0349810083006905</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09680829276250202</v>
+        <v>0.09712737817040699</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -4654,19 +4654,19 @@
         <v>9033</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4094</v>
+        <v>4005</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17184</v>
+        <v>18542</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.04694481853505377</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02127865430077067</v>
+        <v>0.02081692941201905</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08930798299516374</v>
+        <v>0.09636543508514214</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>23</v>
@@ -4675,19 +4675,19 @@
         <v>26244</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>16494</v>
+        <v>16357</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>37050</v>
+        <v>38811</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05521258349886458</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.03470070116160399</v>
+        <v>0.03441360569081306</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07794806389876431</v>
+        <v>0.0816515707890267</v>
       </c>
     </row>
     <row r="21">
@@ -4704,19 +4704,19 @@
         <v>46507</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>33973</v>
+        <v>35410</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>61082</v>
+        <v>62273</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1643897190073918</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1200876927642275</v>
+        <v>0.1251664532570522</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2159091506604362</v>
+        <v>0.2201182515916021</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>24</v>
@@ -4725,19 +4725,19 @@
         <v>26529</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>17413</v>
+        <v>17892</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>37537</v>
+        <v>38353</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1378753908583334</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09049867863049467</v>
+        <v>0.09298829814997508</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1950812159111102</v>
+        <v>0.1993225398691857</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>66</v>
@@ -4746,19 +4746,19 @@
         <v>73036</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>58951</v>
+        <v>57902</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>92893</v>
+        <v>91306</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1536564200179466</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1240231358798932</v>
+        <v>0.1218173490986044</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1954319705801397</v>
+        <v>0.1920930733411509</v>
       </c>
     </row>
     <row r="22">
@@ -4775,19 +4775,19 @@
         <v>110638</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>93022</v>
+        <v>92767</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>128370</v>
+        <v>128572</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3910787273280739</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3288090897859267</v>
+        <v>0.3279084810487466</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4537551357052037</v>
+        <v>0.4544704600348536</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>60</v>
@@ -4796,19 +4796,19 @@
         <v>63800</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>50499</v>
+        <v>51680</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>78759</v>
+        <v>76218</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.331575447919551</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2624469670336163</v>
+        <v>0.2685858555004106</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4093176401047521</v>
+        <v>0.3961129625574561</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>163</v>
@@ -4817,19 +4817,19 @@
         <v>174438</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>151745</v>
+        <v>154184</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>196445</v>
+        <v>197622</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3669911289113342</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3192471117646482</v>
+        <v>0.3243785698884851</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4132893382670462</v>
+        <v>0.4157671886676285</v>
       </c>
     </row>
     <row r="23">
@@ -4846,19 +4846,19 @@
         <v>64484</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>50228</v>
+        <v>49867</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>80862</v>
+        <v>80101</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2279349989094141</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1775438644770359</v>
+        <v>0.1762662915777279</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2858273609618882</v>
+        <v>0.2831375991754468</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>56</v>
@@ -4867,19 +4867,19 @@
         <v>61674</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>48676</v>
+        <v>48152</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>76133</v>
+        <v>75544</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3205236334112453</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2529726079291896</v>
+        <v>0.2502501563194444</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3956709263729551</v>
+        <v>0.3926079812863457</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>113</v>
@@ -4888,19 +4888,19 @@
         <v>126157</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>104641</v>
+        <v>106791</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>146060</v>
+        <v>148290</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.265415922112362</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2201485178518248</v>
+        <v>0.2246716481493643</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3072886039538821</v>
+        <v>0.3119784928358145</v>
       </c>
     </row>
     <row r="24">
@@ -4992,19 +4992,19 @@
         <v>44521</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>33540</v>
+        <v>33087</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>60197</v>
+        <v>58821</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1227644711082804</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09248386930357338</v>
+        <v>0.09123558320022</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1659904453418106</v>
+        <v>0.1621947412479293</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>30</v>
@@ -5013,19 +5013,19 @@
         <v>30938</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21978</v>
+        <v>21261</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>43776</v>
+        <v>42783</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1201661029456697</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0853625273296095</v>
+        <v>0.08257996178747726</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1700281452547062</v>
+        <v>0.1661737649286742</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>72</v>
@@ -5034,19 +5034,19 @@
         <v>75459</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>57461</v>
+        <v>60793</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>92475</v>
+        <v>94900</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1216856761000629</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.09266171457265344</v>
+        <v>0.09803444216964353</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1491246127443082</v>
+        <v>0.1530357584044008</v>
       </c>
     </row>
     <row r="26">
@@ -5063,19 +5063,19 @@
         <v>35069</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>24406</v>
+        <v>24247</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>47560</v>
+        <v>48078</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09670187608287752</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06729785230598248</v>
+        <v>0.06685953349720052</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1311444212482619</v>
+        <v>0.1325733529967842</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>21</v>
@@ -5084,19 +5084,19 @@
         <v>21410</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>13962</v>
+        <v>13665</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>31732</v>
+        <v>32063</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08315997517889369</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05422788328776898</v>
+        <v>0.05307606928081154</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1232482652865107</v>
+        <v>0.1245344744673638</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>54</v>
@@ -5105,19 +5105,19 @@
         <v>56480</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>43536</v>
+        <v>42900</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>73864</v>
+        <v>72777</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09107952613755067</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07020601723814894</v>
+        <v>0.06918042164865133</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.119113912720913</v>
+        <v>0.1173597130450793</v>
       </c>
     </row>
     <row r="27">
@@ -5134,19 +5134,19 @@
         <v>19020</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>12153</v>
+        <v>12346</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>27725</v>
+        <v>28868</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.05244575040354018</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.03351180337413753</v>
+        <v>0.03404236082107329</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.07644911511243366</v>
+        <v>0.07960094258258078</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>18</v>
@@ -5155,19 +5155,19 @@
         <v>20604</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>12191</v>
+        <v>12969</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>31905</v>
+        <v>31988</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.08002652048777781</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.0473517890597485</v>
+        <v>0.05037116748099717</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1239197771508473</v>
+        <v>0.1242458490347263</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>38</v>
@@ -5176,19 +5176,19 @@
         <v>39623</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>29004</v>
+        <v>28418</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>53338</v>
+        <v>54051</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.06389678244657977</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04677249964732</v>
+        <v>0.04582761416115885</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.08601368554091009</v>
+        <v>0.08716240303164188</v>
       </c>
     </row>
     <row r="28">
@@ -5205,19 +5205,19 @@
         <v>83720</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>68050</v>
+        <v>68377</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>101353</v>
+        <v>100978</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2308534545965928</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1876449251873976</v>
+        <v>0.1885448330278764</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2794745577269535</v>
+        <v>0.2784403541353032</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>37</v>
@@ -5226,19 +5226,19 @@
         <v>38232</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>27685</v>
+        <v>28227</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>51425</v>
+        <v>51064</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1484945155446696</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1075321895665585</v>
+        <v>0.109636730025333</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1997381661929412</v>
+        <v>0.1983360612893722</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>118</v>
@@ -5247,19 +5247,19 @@
         <v>121952</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>103409</v>
+        <v>103212</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>142326</v>
+        <v>142615</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1966595271886958</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1667580520520293</v>
+        <v>0.1664403384800998</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2295148323332132</v>
+        <v>0.2299808103965172</v>
       </c>
     </row>
     <row r="29">
@@ -5276,19 +5276,19 @@
         <v>123030</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>105359</v>
+        <v>105030</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>141388</v>
+        <v>142726</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3392482712835513</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.290521020897122</v>
+        <v>0.2896138152608742</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3898692778647106</v>
+        <v>0.3935596854507785</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>91</v>
@@ -5297,19 +5297,19 @@
         <v>94420</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>79175</v>
+        <v>78786</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>109849</v>
+        <v>110369</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3667358498142969</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3075221989136958</v>
+        <v>0.3060125581557129</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.426662912088503</v>
+        <v>0.4286807337486863</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>210</v>
@@ -5318,19 +5318,19 @@
         <v>217450</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>194607</v>
+        <v>193408</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>241772</v>
+        <v>239836</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.350660611895499</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3138240687138549</v>
+        <v>0.3118892735765563</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3898825860626314</v>
+        <v>0.3867600351796035</v>
       </c>
     </row>
     <row r="30">
@@ -5347,19 +5347,19 @@
         <v>57294</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>44111</v>
+        <v>44851</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>73168</v>
+        <v>73431</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1579861765251579</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1216325986229695</v>
+        <v>0.123673362348307</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2017556247436821</v>
+        <v>0.2024828626995254</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>49</v>
@@ -5368,19 +5368,19 @@
         <v>51857</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>39622</v>
+        <v>38738</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>65775</v>
+        <v>65728</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2014170360286923</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1538933678793849</v>
+        <v>0.150462722071946</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2554772304437999</v>
+        <v>0.2552930470491159</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>105</v>
@@ -5389,19 +5389,19 @@
         <v>109152</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>90793</v>
+        <v>91255</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>130713</v>
+        <v>129920</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1760178762316119</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1464133236322881</v>
+        <v>0.1471573749270249</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2107885362707179</v>
+        <v>0.209509918926011</v>
       </c>
     </row>
     <row r="31">
@@ -5493,19 +5493,19 @@
         <v>118351</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>95684</v>
+        <v>96382</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>142374</v>
+        <v>141523</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.09374950914968304</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07579468007234816</v>
+        <v>0.07634761905374461</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.112779301776649</v>
+        <v>0.1121053226045567</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>61</v>
@@ -5514,19 +5514,19 @@
         <v>66648</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>50919</v>
+        <v>52090</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>83822</v>
+        <v>84386</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.08052499696755026</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06152168351400399</v>
+        <v>0.06293590977008612</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.101275238993865</v>
+        <v>0.1019569609896351</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>166</v>
@@ -5535,19 +5535,19 @@
         <v>184998</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>161295</v>
+        <v>160060</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>217369</v>
+        <v>214253</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.08851263068846484</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07717153581369768</v>
+        <v>0.07658100958638187</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1040004062831449</v>
+        <v>0.1025095364157137</v>
       </c>
     </row>
     <row r="33">
@@ -5564,19 +5564,19 @@
         <v>90223</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>71310</v>
+        <v>73630</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>110783</v>
+        <v>110372</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.07146878906442275</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05648675553293443</v>
+        <v>0.05832464112798363</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.08775466155141599</v>
+        <v>0.08742952887799316</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>55</v>
@@ -5585,19 +5585,19 @@
         <v>57060</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>43476</v>
+        <v>44250</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>72587</v>
+        <v>74772</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.06894052887306004</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.0525283343488239</v>
+        <v>0.05346311878280832</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.08770041447819982</v>
+        <v>0.09034089797511682</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>138</v>
@@ -5606,19 +5606,19 @@
         <v>147283</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>126163</v>
+        <v>123078</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>173998</v>
+        <v>172838</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.07046760345105917</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.06036269339866882</v>
+        <v>0.05888676040112836</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.08324936281795568</v>
+        <v>0.08269462252936639</v>
       </c>
     </row>
     <row r="34">
@@ -5635,19 +5635,19 @@
         <v>60465</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>47422</v>
+        <v>46761</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>78808</v>
+        <v>75552</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04789617209719131</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.03756434147991444</v>
+        <v>0.03704059259429145</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.06242672669285627</v>
+        <v>0.05984766772946745</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>47</v>
@@ -5656,19 +5656,19 @@
         <v>53087</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>40283</v>
+        <v>39171</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>72911</v>
+        <v>68565</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06414047377454789</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04867062061703747</v>
+        <v>0.04732688181613645</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.08809168802818865</v>
+        <v>0.08284104669396787</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>107</v>
@@ -5677,19 +5677,19 @@
         <v>113552</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>92065</v>
+        <v>91824</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>134684</v>
+        <v>135058</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.05432888072190823</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0440487511668621</v>
+        <v>0.04393330731018275</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.06443962438930535</v>
+        <v>0.06461841874109996</v>
       </c>
     </row>
     <row r="35">
@@ -5706,19 +5706,19 @@
         <v>236513</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>207857</v>
+        <v>206802</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>265435</v>
+        <v>265636</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1873498084089597</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1646502308025787</v>
+        <v>0.1638151541465267</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2102602497272237</v>
+        <v>0.2104189001492139</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>119</v>
@@ -5727,19 +5727,19 @@
         <v>127886</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>107188</v>
+        <v>107670</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>150995</v>
+        <v>150984</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1545132731173209</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1295060361319338</v>
+        <v>0.1300890424840744</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1824343791969624</v>
+        <v>0.1824205986940586</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>343</v>
@@ -5748,19 +5748,19 @@
         <v>364398</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>327446</v>
+        <v>331396</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>400721</v>
+        <v>399372</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1743466108587207</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1566665451401539</v>
+        <v>0.1585564746526878</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.191725318330637</v>
+        <v>0.1910798129175575</v>
       </c>
     </row>
     <row r="36">
@@ -5777,19 +5777,19 @@
         <v>489001</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>456215</v>
+        <v>457457</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>522898</v>
+        <v>528817</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3873540615945176</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.361383254007528</v>
+        <v>0.3623669971482514</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4142048451594262</v>
+        <v>0.4188936183048104</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>273</v>
@@ -5798,19 +5798,19 @@
         <v>292614</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>262822</v>
+        <v>264447</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>319233</v>
+        <v>320964</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3535403162740208</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.317545105412048</v>
+        <v>0.3195091910843321</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3857026424057091</v>
+        <v>0.3877939365197234</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>737</v>
@@ -5819,19 +5819,19 @@
         <v>781614</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>735622</v>
+        <v>732483</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>826015</v>
+        <v>824653</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.373963890968695</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3519589323261311</v>
+        <v>0.3504566881506946</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3952073894188432</v>
+        <v>0.3945557700938385</v>
       </c>
     </row>
     <row r="37">
@@ -5848,19 +5848,19 @@
         <v>267861</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>238839</v>
+        <v>237559</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>298757</v>
+        <v>296283</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2121816596852257</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1891922221684078</v>
+        <v>0.1881785101200187</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2366553633543842</v>
+        <v>0.2346957135282971</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>212</v>
@@ -5869,19 +5869,19 @@
         <v>230373</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>204341</v>
+        <v>202516</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>257820</v>
+        <v>254655</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2783404109935001</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2468877111468226</v>
+        <v>0.2446827268216259</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3115015208537402</v>
+        <v>0.307678316216449</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>463</v>
@@ -5890,19 +5890,19 @@
         <v>498234</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>457423</v>
+        <v>459919</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>539449</v>
+        <v>542656</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2383803833111522</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2188540840166269</v>
+        <v>0.2200486379356109</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2580996549602272</v>
+        <v>0.2596340905010992</v>
       </c>
     </row>
     <row r="38">
@@ -6234,19 +6234,19 @@
         <v>14416</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8036</v>
+        <v>8072</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24218</v>
+        <v>21944</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06443221573161688</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03591974696853334</v>
+        <v>0.03607768045238387</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.108244535890173</v>
+        <v>0.0980819432968953</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -6255,19 +6255,19 @@
         <v>8410</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3921</v>
+        <v>3865</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15137</v>
+        <v>14967</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05805438272045597</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0270666003814185</v>
+        <v>0.02667809977532038</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1044856436265199</v>
+        <v>0.103318200526962</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>23</v>
@@ -6276,19 +6276,19 @@
         <v>22826</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15339</v>
+        <v>14844</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32930</v>
+        <v>34467</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06192561198025093</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04161302879901265</v>
+        <v>0.04027248546625285</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08933839914213237</v>
+        <v>0.09350832565071251</v>
       </c>
     </row>
     <row r="5">
@@ -6305,19 +6305,19 @@
         <v>10348</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5210</v>
+        <v>5096</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18808</v>
+        <v>18693</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04624927089118563</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02328614588277573</v>
+        <v>0.02277859660222813</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08406317854714178</v>
+        <v>0.0835496586193807</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -6326,19 +6326,19 @@
         <v>6865</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2610</v>
+        <v>2618</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13117</v>
+        <v>14014</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04739028950056034</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01801987877150383</v>
+        <v>0.01806947006185178</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09054747499660409</v>
+        <v>0.09673397791350384</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -6347,19 +6347,19 @@
         <v>17213</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10303</v>
+        <v>10191</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>25552</v>
+        <v>27172</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04669771184622977</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02795044410389979</v>
+        <v>0.02764857983917279</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06932136785928754</v>
+        <v>0.07371558654302122</v>
       </c>
     </row>
     <row r="6">
@@ -6376,19 +6376,19 @@
         <v>7706</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3025</v>
+        <v>3004</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15905</v>
+        <v>14788</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03444336867798197</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01352198572333371</v>
+        <v>0.01342683702857652</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07108789699085694</v>
+        <v>0.06609604087895424</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -6397,19 +6397,19 @@
         <v>6982</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3453</v>
+        <v>3336</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12526</v>
+        <v>13100</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04819263710991382</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02383415053707831</v>
+        <v>0.0230289092633643</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.08646690296073803</v>
+        <v>0.09043007259752936</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>15</v>
@@ -6418,19 +6418,19 @@
         <v>14688</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>8483</v>
+        <v>8484</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23384</v>
+        <v>22679</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03984707990242253</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02301269702661659</v>
+        <v>0.02301745800132924</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06343960349667639</v>
+        <v>0.06152623738605185</v>
       </c>
     </row>
     <row r="7">
@@ -6447,19 +6447,19 @@
         <v>31120</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>22259</v>
+        <v>21403</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>42619</v>
+        <v>41977</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1390958729422618</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0994890613845661</v>
+        <v>0.09566207999311106</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1904877848053337</v>
+        <v>0.1876202357178066</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -6468,19 +6468,19 @@
         <v>21011</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>13968</v>
+        <v>14109</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>31481</v>
+        <v>30822</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1450391774679324</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09641845433693051</v>
+        <v>0.0973898583010573</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2173082031219572</v>
+        <v>0.2127618889511937</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>52</v>
@@ -6489,19 +6489,19 @@
         <v>52132</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>39915</v>
+        <v>39679</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>67330</v>
+        <v>66474</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1414316991380067</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1082881714154777</v>
+        <v>0.1076489054743127</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1826627138381995</v>
+        <v>0.1803401614373243</v>
       </c>
     </row>
     <row r="8">
@@ -6518,19 +6518,19 @@
         <v>100751</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>84793</v>
+        <v>85394</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>115580</v>
+        <v>115393</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4503157603810707</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3789897493034017</v>
+        <v>0.3816768212795136</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5165962992447326</v>
+        <v>0.5157578500879311</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>56</v>
@@ -6539,19 +6539,19 @@
         <v>53624</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>41874</v>
+        <v>43163</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>63974</v>
+        <v>65614</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3701568519574104</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2890541439977747</v>
+        <v>0.2979514955349504</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4416025454526594</v>
+        <v>0.4529233463187413</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>152</v>
@@ -6560,19 +6560,19 @@
         <v>154374</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>136168</v>
+        <v>136261</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>172571</v>
+        <v>173549</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4188118592584584</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3694171841197642</v>
+        <v>0.3696715682386363</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4681794360822651</v>
+        <v>0.470831296737733</v>
       </c>
     </row>
     <row r="9">
@@ -6589,19 +6589,19 @@
         <v>59393</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>45854</v>
+        <v>46497</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>74498</v>
+        <v>73287</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.265463511375883</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2049477536157744</v>
+        <v>0.2078213745972842</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.332975870704565</v>
+        <v>0.327564942006797</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>50</v>
@@ -6610,19 +6610,19 @@
         <v>47975</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>38485</v>
+        <v>37771</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>60824</v>
+        <v>59719</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3311666612437271</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.265655059143147</v>
+        <v>0.2607290395724352</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4198613987788715</v>
+        <v>0.412236344986424</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>105</v>
@@ -6631,19 +6631,19 @@
         <v>107368</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>90780</v>
+        <v>90722</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>126107</v>
+        <v>124645</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2912860378746316</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2462825516756331</v>
+        <v>0.2461252948612148</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3421234037160543</v>
+        <v>0.3381575375660957</v>
       </c>
     </row>
     <row r="10">
@@ -6735,19 +6735,19 @@
         <v>53076</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>40217</v>
+        <v>40406</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>69161</v>
+        <v>69495</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1405951953362731</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1065314029235224</v>
+        <v>0.1070336078633128</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1832027863827859</v>
+        <v>0.1840862232270268</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>21</v>
@@ -6756,19 +6756,19 @@
         <v>23354</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>15396</v>
+        <v>14705</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>33651</v>
+        <v>35053</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.09684611780212868</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06384526173179683</v>
+        <v>0.06098222383135177</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1395488073316273</v>
+        <v>0.1453622646903003</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>65</v>
@@ -6777,19 +6777,19 @@
         <v>76430</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>59186</v>
+        <v>60819</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>96186</v>
+        <v>97408</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1235424796283487</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09566936225975894</v>
+        <v>0.09830877593138276</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1554758241807725</v>
+        <v>0.1574515354425832</v>
       </c>
     </row>
     <row r="12">
@@ -6806,19 +6806,19 @@
         <v>21653</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13881</v>
+        <v>13246</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>34674</v>
+        <v>34529</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05735766531758813</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03676980310127554</v>
+        <v>0.03508789514281533</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09184905531575635</v>
+        <v>0.09146400969839837</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -6827,19 +6827,19 @@
         <v>10511</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5665</v>
+        <v>5628</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19368</v>
+        <v>18327</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04358760161775153</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02349200844392026</v>
+        <v>0.02333972383430332</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08031826422836909</v>
+        <v>0.07600281048975312</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>29</v>
@@ -6848,19 +6848,19 @@
         <v>32164</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>22025</v>
+        <v>20901</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>45840</v>
+        <v>45560</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05199030685454266</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03560197984334304</v>
+        <v>0.03378397874647963</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07409612961281925</v>
+        <v>0.07364418654808358</v>
       </c>
     </row>
     <row r="13">
@@ -6877,19 +6877,19 @@
         <v>23389</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15143</v>
+        <v>14588</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35332</v>
+        <v>35037</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06195448719905614</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04011213432669051</v>
+        <v>0.03864117896916489</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09359287597636756</v>
+        <v>0.09280945750748897</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>18</v>
@@ -6898,19 +6898,19 @@
         <v>18385</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11289</v>
+        <v>10930</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28541</v>
+        <v>27874</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07624053133307788</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04681650857694737</v>
+        <v>0.04532684648852493</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1183558189077092</v>
+        <v>0.1155898333387212</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>39</v>
@@ -6919,19 +6919,19 @@
         <v>41773</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30616</v>
+        <v>29999</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>55697</v>
+        <v>56628</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0675229668777008</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04948744232329038</v>
+        <v>0.04849093534708256</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0900296444359184</v>
+        <v>0.09153361567259403</v>
       </c>
     </row>
     <row r="14">
@@ -6948,19 +6948,19 @@
         <v>90328</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>74039</v>
+        <v>73345</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>107046</v>
+        <v>107546</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2392717690798486</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1961243928285051</v>
+        <v>0.1942859401170476</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2835554337404227</v>
+        <v>0.2848819318433463</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>47</v>
@@ -6969,19 +6969,19 @@
         <v>46857</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>35392</v>
+        <v>35391</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>58925</v>
+        <v>60454</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1943114555388987</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1467664115604604</v>
+        <v>0.146763396544513</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2443569313424596</v>
+        <v>0.2506976846891868</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>128</v>
@@ -6990,19 +6990,19 @@
         <v>137185</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>117542</v>
+        <v>117208</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>160136</v>
+        <v>158901</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.221746932256613</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1899955902007327</v>
+        <v>0.1894559641904036</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2588459236593285</v>
+        <v>0.2568502572141789</v>
       </c>
     </row>
     <row r="15">
@@ -7019,19 +7019,19 @@
         <v>131823</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>112320</v>
+        <v>113409</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>150479</v>
+        <v>151521</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.349188755109643</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2975268500743619</v>
+        <v>0.3004105898626643</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3986084536439666</v>
+        <v>0.4013665433163389</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>84</v>
@@ -7040,19 +7040,19 @@
         <v>85776</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>69436</v>
+        <v>71180</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>100219</v>
+        <v>101239</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.3557064540388389</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2879484888030489</v>
+        <v>0.2951777250700945</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4156036337353419</v>
+        <v>0.4198326043392777</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>208</v>
@@ -7061,19 +7061,19 @@
         <v>217599</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>194653</v>
+        <v>192539</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>244291</v>
+        <v>244076</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.351729253633816</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.3146402829412723</v>
+        <v>0.3112228274176834</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3948744199455655</v>
+        <v>0.3945271149356961</v>
       </c>
     </row>
     <row r="16">
@@ -7090,19 +7090,19 @@
         <v>57243</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44845</v>
+        <v>42508</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>72999</v>
+        <v>72211</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.151632127957591</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1187908216320722</v>
+        <v>0.1125995173569434</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.193367680562094</v>
+        <v>0.1912804056175701</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>54</v>
@@ -7111,19 +7111,19 @@
         <v>56260</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>43658</v>
+        <v>43406</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>70678</v>
+        <v>69519</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2333078396693042</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1810479196200989</v>
+        <v>0.1800028793829106</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2930963938576934</v>
+        <v>0.2882894992537568</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>105</v>
@@ -7132,19 +7132,19 @@
         <v>113503</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>94309</v>
+        <v>94772</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>134097</v>
+        <v>133235</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1834680607489788</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1524428144785124</v>
+        <v>0.1531910530198964</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2167557557538017</v>
+        <v>0.2153627895822009</v>
       </c>
     </row>
     <row r="17">
@@ -7236,19 +7236,19 @@
         <v>18602</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11962</v>
+        <v>11151</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>29345</v>
+        <v>29264</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05675729834466386</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.03649756058014691</v>
+        <v>0.03402379847356982</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08953432401611673</v>
+        <v>0.08928698360145627</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -7257,19 +7257,19 @@
         <v>12890</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6913</v>
+        <v>6983</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>21617</v>
+        <v>21288</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05316418680074265</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02850940532757487</v>
+        <v>0.02880189268803973</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.08915502918649623</v>
+        <v>0.08779918815172727</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>30</v>
@@ -7278,19 +7278,19 @@
         <v>31493</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>21907</v>
+        <v>21141</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>44409</v>
+        <v>44376</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05522945124555199</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03841849031320724</v>
+        <v>0.03707562683529919</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07788141199100002</v>
+        <v>0.0778234730344851</v>
       </c>
     </row>
     <row r="19">
@@ -7307,19 +7307,19 @@
         <v>18060</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>10766</v>
+        <v>10864</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28830</v>
+        <v>29577</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05510267054978544</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03284895558843789</v>
+        <v>0.03314824710042467</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08796445439672684</v>
+        <v>0.09024219064371641</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -7328,19 +7328,19 @@
         <v>16485</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9758</v>
+        <v>9837</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>25946</v>
+        <v>26004</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06798939322817073</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04024322866492333</v>
+        <v>0.04056974359269686</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1070076838125819</v>
+        <v>0.1072493994134872</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>32</v>
@@ -7349,19 +7349,19 @@
         <v>34545</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>24126</v>
+        <v>23696</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>48863</v>
+        <v>47070</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06058230613041182</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04231038375420881</v>
+        <v>0.04155555570698073</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08569158722966455</v>
+        <v>0.08254695432600019</v>
       </c>
     </row>
     <row r="20">
@@ -7378,19 +7378,19 @@
         <v>22946</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>14665</v>
+        <v>14636</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>33662</v>
+        <v>33497</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07001016669536538</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04474308935505322</v>
+        <v>0.04465466246617666</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1027057862563911</v>
+        <v>0.1022012413570752</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>19</v>
@@ -7399,19 +7399,19 @@
         <v>20394</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>12380</v>
+        <v>12121</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>30441</v>
+        <v>30946</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.08411213906600011</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05106020901270444</v>
+        <v>0.04998871268998029</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1255491170765001</v>
+        <v>0.1276305549995339</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>40</v>
@@ -7420,19 +7420,19 @@
         <v>43340</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>30990</v>
+        <v>31689</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>58795</v>
+        <v>57077</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07600654540915194</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05434791350246452</v>
+        <v>0.05557294542271288</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1031101010482979</v>
+        <v>0.1000967642628011</v>
       </c>
     </row>
     <row r="21">
@@ -7449,19 +7449,19 @@
         <v>84862</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>68076</v>
+        <v>70279</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>102325</v>
+        <v>103051</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2589231364384019</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2077071058084494</v>
+        <v>0.2144293635559391</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3122025955091661</v>
+        <v>0.3144197600905864</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>55</v>
@@ -7470,19 +7470,19 @@
         <v>55749</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>43216</v>
+        <v>43140</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>68606</v>
+        <v>69390</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2299245235300733</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1782367471635073</v>
+        <v>0.1779241165521571</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.282952457639255</v>
+        <v>0.2861855581779473</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>132</v>
@@ -7491,19 +7491,19 @@
         <v>140611</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>118594</v>
+        <v>119238</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>160408</v>
+        <v>162915</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2465924737053695</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2079808894293616</v>
+        <v>0.2091097155252685</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2813112035662268</v>
+        <v>0.2857074113434294</v>
       </c>
     </row>
     <row r="22">
@@ -7520,19 +7520,19 @@
         <v>140688</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>121735</v>
+        <v>121619</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>159803</v>
+        <v>160253</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4292519125926795</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3714261702584089</v>
+        <v>0.3710712721489118</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4875735808934228</v>
+        <v>0.488948555130131</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>110</v>
@@ -7541,19 +7541,19 @@
         <v>112532</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>98762</v>
+        <v>96389</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>127740</v>
+        <v>127246</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4641158109220249</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4073253925736282</v>
+        <v>0.3975392907797722</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5268408817734394</v>
+        <v>0.5248025746462948</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>236</v>
@@ -7562,19 +7562,19 @@
         <v>253220</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>228676</v>
+        <v>230770</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>279037</v>
+        <v>279537</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.444076586214721</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4010333414242165</v>
+        <v>0.4047055971503442</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4893537928777288</v>
+        <v>0.4902304714527809</v>
       </c>
     </row>
     <row r="23">
@@ -7591,7 +7591,7 @@
         <v>42593</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>31564</v>
+        <v>30287</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>56925</v>
@@ -7600,10 +7600,10 @@
         <v>0.1299548153791039</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0963059186794071</v>
+        <v>0.0924080050826801</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1736830278408561</v>
+        <v>0.1736829961533524</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>24</v>
@@ -7612,19 +7612,19 @@
         <v>24415</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>16084</v>
+        <v>16096</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>35605</v>
+        <v>35127</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1006939464529882</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06633560632085411</v>
+        <v>0.06638547563084923</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.14684611222093</v>
+        <v>0.1448743123378486</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>63</v>
@@ -7633,19 +7633,19 @@
         <v>67008</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>52114</v>
+        <v>51515</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>83528</v>
+        <v>81247</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1175126372947938</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.09139406420473251</v>
+        <v>0.09034359827819163</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1464845737114903</v>
+        <v>0.1424837852142716</v>
       </c>
     </row>
     <row r="24">
@@ -7737,19 +7737,19 @@
         <v>60248</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>46980</v>
+        <v>46807</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>75819</v>
+        <v>74029</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1718924339182752</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1340387989200175</v>
+        <v>0.133544484796671</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2163193270099211</v>
+        <v>0.2112112889485337</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>57</v>
@@ -7758,19 +7758,19 @@
         <v>63194</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>50551</v>
+        <v>48861</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>79622</v>
+        <v>78827</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2272665351853579</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1817963158323646</v>
+        <v>0.175720591261975</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2863470084601073</v>
+        <v>0.2834884847348</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>116</v>
@@ -7779,19 +7779,19 @@
         <v>123442</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>104658</v>
+        <v>103884</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>144399</v>
+        <v>144210</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1963888296991405</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1665054177826722</v>
+        <v>0.1652735802356471</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2297298356647859</v>
+        <v>0.2294296968477111</v>
       </c>
     </row>
     <row r="26">
@@ -7808,19 +7808,19 @@
         <v>23752</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>15516</v>
+        <v>15176</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>34826</v>
+        <v>34198</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06776747718922749</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.04426951609111505</v>
+        <v>0.04329711811237866</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0993627208183262</v>
+        <v>0.09757055497553374</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -7829,19 +7829,19 @@
         <v>17681</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10777</v>
+        <v>11004</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>27240</v>
+        <v>27148</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.06358604833315419</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03875903269470837</v>
+        <v>0.03957268313865791</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0979628348679232</v>
+        <v>0.09763313731703051</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>40</v>
@@ -7850,19 +7850,19 @@
         <v>41433</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>30050</v>
+        <v>30841</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>54742</v>
+        <v>56276</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.06591769662676097</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04780800479445483</v>
+        <v>0.04906649378442413</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08709209187641977</v>
+        <v>0.08953219842777986</v>
       </c>
     </row>
     <row r="27">
@@ -7879,19 +7879,19 @@
         <v>26842</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>17571</v>
+        <v>17432</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>37889</v>
+        <v>38356</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.07658396137170448</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.05013058048174926</v>
+        <v>0.04973400924714827</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1080996031050671</v>
+        <v>0.1094318041960802</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>9</v>
@@ -7900,19 +7900,19 @@
         <v>10100</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>4659</v>
+        <v>5163</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>18647</v>
+        <v>18640</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.03632258595916807</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01675689579872851</v>
+        <v>0.01856751987762125</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.06706033525683963</v>
+        <v>0.06703499190714592</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>34</v>
@@ -7921,19 +7921,19 @@
         <v>36942</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>26545</v>
+        <v>25879</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>50664</v>
+        <v>51838</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.05877313348972175</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04223182677637612</v>
+        <v>0.041172413332012</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.08060284761456622</v>
+        <v>0.08247074421998295</v>
       </c>
     </row>
     <row r="28">
@@ -7950,19 +7950,19 @@
         <v>89058</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>74652</v>
+        <v>73519</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>104942</v>
+        <v>106212</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2540919066174636</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2129891998415932</v>
+        <v>0.2097557144899155</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2994094448842775</v>
+        <v>0.3030324544637062</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>55</v>
@@ -7971,19 +7971,19 @@
         <v>56617</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>44686</v>
+        <v>43707</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>70396</v>
+        <v>71363</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2036130480043629</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1607066512829154</v>
+        <v>0.1571840264046737</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.253168230735011</v>
+        <v>0.2566436023923158</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>144</v>
@@ -7992,19 +7992,19 @@
         <v>145675</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>126515</v>
+        <v>125074</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>169580</v>
+        <v>169819</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2317610683580998</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2012778278891559</v>
+        <v>0.1989862118891732</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2697924926386512</v>
+        <v>0.2701716472908829</v>
       </c>
     </row>
     <row r="29">
@@ -8021,19 +8021,19 @@
         <v>106765</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>89709</v>
+        <v>90547</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>125395</v>
+        <v>124176</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3046094859014726</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2559481435851609</v>
+        <v>0.2583375467095657</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3577624478456754</v>
+        <v>0.3542849503980617</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>82</v>
@@ -8042,19 +8042,19 @@
         <v>85584</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>70537</v>
+        <v>72422</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>101333</v>
+        <v>102557</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3077887917777354</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2536731398162068</v>
+        <v>0.2604515196620724</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3644270344741714</v>
+        <v>0.3688280895336527</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>189</v>
@@ -8063,19 +8063,19 @@
         <v>192349</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>170418</v>
+        <v>170581</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>216421</v>
+        <v>215906</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3060159472845246</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2711253608065055</v>
+        <v>0.2713841024269344</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3443129058363743</v>
+        <v>0.3434947301795139</v>
       </c>
     </row>
     <row r="30">
@@ -8092,19 +8092,19 @@
         <v>43831</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>32610</v>
+        <v>33070</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>58099</v>
+        <v>56461</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1250547350018567</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.0930381236476837</v>
+        <v>0.09435271872446462</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1657627567139351</v>
+        <v>0.1610877195860637</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>41</v>
@@ -8113,19 +8113,19 @@
         <v>44886</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>33300</v>
+        <v>34102</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>58821</v>
+        <v>59177</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1614229907402215</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1197586884354557</v>
+        <v>0.1226426766847268</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.211537474202281</v>
+        <v>0.212819550760973</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>85</v>
@@ -8134,19 +8134,19 @@
         <v>88717</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>71338</v>
+        <v>71384</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>105864</v>
+        <v>105900</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1411433245417524</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1134953017926126</v>
+        <v>0.1135681284331124</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1684243470226289</v>
+        <v>0.1684814832244549</v>
       </c>
     </row>
     <row r="31">
@@ -8238,19 +8238,19 @@
         <v>146342</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>125208</v>
+        <v>124486</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>172808</v>
+        <v>172378</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.114374963722417</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09785757590851166</v>
+        <v>0.09729305602252877</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1350599202459933</v>
+        <v>0.1347235709586195</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>100</v>
@@ -8259,19 +8259,19 @@
         <v>107848</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>87904</v>
+        <v>88144</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>127614</v>
+        <v>130926</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1189676698985482</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.09696728552598828</v>
+        <v>0.09723184865790359</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1407711856906804</v>
+        <v>0.1444248155079078</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>234</v>
@@ -8280,19 +8280,19 @@
         <v>254190</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>224503</v>
+        <v>223891</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>286860</v>
+        <v>288397</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1162795351677886</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1026987771760386</v>
+        <v>0.1024188566796596</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1312241452979478</v>
+        <v>0.1319272611466437</v>
       </c>
     </row>
     <row r="33">
@@ -8309,19 +8309,19 @@
         <v>73813</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>58037</v>
+        <v>58165</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>91945</v>
+        <v>93266</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.05768920432947594</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.04535955788156388</v>
+        <v>0.04545944359830537</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.07186032901586159</v>
+        <v>0.07289297516623718</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>52</v>
@@ -8330,19 +8330,19 @@
         <v>51542</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>38751</v>
+        <v>39325</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>65252</v>
+        <v>67044</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.05685598807227222</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.042746459483941</v>
+        <v>0.04337931324800848</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.07198008592363353</v>
+        <v>0.07395639242963789</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>118</v>
@@ -8351,19 +8351,19 @@
         <v>125355</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>104783</v>
+        <v>103894</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>148458</v>
+        <v>147053</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.05734367386651338</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.04793311404329328</v>
+        <v>0.04752638896743979</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.06791203907675869</v>
+        <v>0.06726953708082352</v>
       </c>
     </row>
     <row r="34">
@@ -8380,19 +8380,19 @@
         <v>80883</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>63672</v>
+        <v>64915</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>101939</v>
+        <v>99672</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06321488228763276</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04976324581886591</v>
+        <v>0.05073521317426825</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07967120606595285</v>
+        <v>0.07789967928388379</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>54</v>
@@ -8401,19 +8401,19 @@
         <v>55860</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>42185</v>
+        <v>42943</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>70801</v>
+        <v>72735</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.06161972593368353</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.04653422637346168</v>
+        <v>0.04737048264061864</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.07810057366026409</v>
+        <v>0.08023416046161662</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>128</v>
@@ -8422,19 +8422,19 @@
         <v>136744</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>114223</v>
+        <v>116668</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>161013</v>
+        <v>161675</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.06255337921599624</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.05225115785020655</v>
+        <v>0.05336990505725776</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.07365538990941466</v>
+        <v>0.07395819910856881</v>
       </c>
     </row>
     <row r="35">
@@ -8451,19 +8451,19 @@
         <v>295369</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>265616</v>
+        <v>265853</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>325076</v>
+        <v>330376</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2308484515711371</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2075946824865763</v>
+        <v>0.2077796263971807</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2540662390147853</v>
+        <v>0.2582079883646135</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>179</v>
@@ -8472,19 +8472,19 @@
         <v>180234</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>159237</v>
+        <v>157510</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>207364</v>
+        <v>207221</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1988158716202506</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1756547964369448</v>
+        <v>0.1737500131408754</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2287435639353392</v>
+        <v>0.228585351869748</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>456</v>
@@ -8493,19 +8493,19 @@
         <v>475603</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>437953</v>
+        <v>434595</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>514925</v>
+        <v>516687</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.217564706703436</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2003419489387164</v>
+        <v>0.1988057849521333</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2355528355666544</v>
+        <v>0.2363587116298432</v>
       </c>
     </row>
     <row r="36">
@@ -8522,19 +8522,19 @@
         <v>480026</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>448630</v>
+        <v>447396</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>516608</v>
+        <v>517783</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3751689059158129</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3506304702765337</v>
+        <v>0.3496660421449995</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4037595453513796</v>
+        <v>0.4046776399818678</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>332</v>
@@ -8543,19 +8543,19 @@
         <v>337515</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>308773</v>
+        <v>309990</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>368358</v>
+        <v>366978</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.3723133749155436</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.340607624442732</v>
+        <v>0.3419501405206894</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.4063362220583884</v>
+        <v>0.4048134155771666</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>785</v>
@@ -8564,19 +8564,19 @@
         <v>817541</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>768137</v>
+        <v>773652</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>861611</v>
+        <v>862144</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.3739847320113834</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.3513845875790388</v>
+        <v>0.3539074142136116</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.3941443417809338</v>
+        <v>0.3943883714145754</v>
       </c>
     </row>
     <row r="37">
@@ -8593,19 +8593,19 @@
         <v>203060</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>178691</v>
+        <v>176479</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>229034</v>
+        <v>229698</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1587035921735243</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1396572734688018</v>
+        <v>0.1379284541860881</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.179003433853822</v>
+        <v>0.1795221547801161</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>169</v>
@@ -8614,19 +8614,19 @@
         <v>173536</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>153266</v>
+        <v>150450</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>198216</v>
+        <v>198287</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1914273695597019</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1690682272037802</v>
+        <v>0.1659615559627116</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2186520046037564</v>
+        <v>0.2187307693115331</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>358</v>
@@ -8635,19 +8635,19 @@
         <v>376596</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>339863</v>
+        <v>342721</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>414164</v>
+        <v>412379</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1722739730348823</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1554705648080818</v>
+        <v>0.1567778106727316</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1894596480373666</v>
+        <v>0.1886430104581577</v>
       </c>
     </row>
     <row r="38">
@@ -8979,19 +8979,19 @@
         <v>18390</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10439</v>
+        <v>10495</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30165</v>
+        <v>31047</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.05849520868571739</v>
+        <v>0.0584952086857174</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03320514826612942</v>
+        <v>0.033382160212899</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0959496321229583</v>
+        <v>0.09875541415962323</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>27</v>
@@ -9000,19 +9000,19 @@
         <v>22618</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>14891</v>
+        <v>14747</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32949</v>
+        <v>31737</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0992669731111941</v>
+        <v>0.09926697311119412</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06535372000708585</v>
+        <v>0.06472079821580798</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1446091854935715</v>
+        <v>0.1392890012702624</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -9021,19 +9021,19 @@
         <v>41008</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28702</v>
+        <v>29710</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56897</v>
+        <v>56203</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.07562776887858097</v>
+        <v>0.07562776887858098</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05293213597082815</v>
+        <v>0.0547913380454321</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1049298697595973</v>
+        <v>0.1036513271197983</v>
       </c>
     </row>
     <row r="5">
@@ -9050,19 +9050,19 @@
         <v>6346</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1160</v>
+        <v>1186</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20825</v>
+        <v>24443</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.02018432072150485</v>
+        <v>0.02018432072150486</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003689938817484816</v>
+        <v>0.0037708911361989</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06624072629376171</v>
+        <v>0.07774780842598253</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -9071,19 +9071,19 @@
         <v>4932</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2011</v>
+        <v>2093</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10117</v>
+        <v>10042</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02164382111247551</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.008824115282522967</v>
+        <v>0.009187475577648794</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04439987884480352</v>
+        <v>0.04407119633471654</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -9092,19 +9092,19 @@
         <v>11277</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4694</v>
+        <v>5399</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>28446</v>
+        <v>27179</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.02079761226412418</v>
+        <v>0.02079761226412419</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.008656870176450849</v>
+        <v>0.009957822202780468</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05246093913316926</v>
+        <v>0.05012438590701096</v>
       </c>
     </row>
     <row r="6">
@@ -9121,19 +9121,19 @@
         <v>24379</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15810</v>
+        <v>14886</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>36815</v>
+        <v>36731</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.07754439876456305</v>
+        <v>0.07754439876456307</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05028745031251186</v>
+        <v>0.04735060580223763</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1171020156165516</v>
+        <v>0.1168362483570519</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -9142,19 +9142,19 @@
         <v>18348</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12171</v>
+        <v>11442</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>27547</v>
+        <v>27540</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.08052567593768643</v>
+        <v>0.08052567593768646</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05341606565102778</v>
+        <v>0.05021775903522951</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1208970803689575</v>
+        <v>0.1208671895485331</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>44</v>
@@ -9163,19 +9163,19 @@
         <v>42727</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>30821</v>
+        <v>31292</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>55553</v>
+        <v>56948</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.07879715079381372</v>
+        <v>0.07879715079381375</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0568398398183234</v>
+        <v>0.05770938473615023</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1024516200569722</v>
+        <v>0.105025471495836</v>
       </c>
     </row>
     <row r="7">
@@ -9192,19 +9192,19 @@
         <v>85885</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>68334</v>
+        <v>69345</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>103608</v>
+        <v>106091</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2731848092263709</v>
+        <v>0.273184809226371</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2173578412314406</v>
+        <v>0.2205726267406529</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3295595688307284</v>
+        <v>0.3374553342888272</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>82</v>
@@ -9213,19 +9213,19 @@
         <v>52629</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>42551</v>
+        <v>43028</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>64463</v>
+        <v>63754</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2309779863302391</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1867493804654764</v>
+        <v>0.1888447316712373</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2829193471215694</v>
+        <v>0.2798050208182822</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>155</v>
@@ -9234,19 +9234,19 @@
         <v>138514</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>116571</v>
+        <v>119125</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>159575</v>
+        <v>161915</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.2554492281445361</v>
+        <v>0.2554492281445362</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.214982205079493</v>
+        <v>0.2196916864230236</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2942904773938764</v>
+        <v>0.298606628291383</v>
       </c>
     </row>
     <row r="8">
@@ -9263,19 +9263,19 @@
         <v>116546</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>98941</v>
+        <v>98458</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>135959</v>
+        <v>136598</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3707117835582572</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3147123467239738</v>
+        <v>0.3131767599052767</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4324626391284799</v>
+        <v>0.4344947670482803</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>113</v>
@@ -9284,19 +9284,19 @@
         <v>81342</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>68325</v>
+        <v>69206</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>94971</v>
+        <v>94831</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3569981693296614</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2998651504218091</v>
+        <v>0.3037314935910877</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.416809795933994</v>
+        <v>0.4161989600865481</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>226</v>
@@ -9305,19 +9305,19 @@
         <v>197888</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>174895</v>
+        <v>175841</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>221242</v>
+        <v>221504</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.3649492338000152</v>
+        <v>0.3649492338000153</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3225454557237208</v>
+        <v>0.3242895851162298</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4080183073890761</v>
+        <v>0.4085014576177853</v>
       </c>
     </row>
     <row r="9">
@@ -9334,19 +9334,19 @@
         <v>62839</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>48096</v>
+        <v>47591</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>78629</v>
+        <v>78161</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1998794790435866</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1529861412476176</v>
+        <v>0.1513772400826891</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2501035771173963</v>
+        <v>0.2486159504181877</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>68</v>
@@ -9355,19 +9355,19 @@
         <v>47983</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>37819</v>
+        <v>37720</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>60988</v>
+        <v>60690</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2105873741787435</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1659798053506641</v>
+        <v>0.1655480362519399</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2676659412831421</v>
+        <v>0.26635714454037</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>129</v>
@@ -9376,19 +9376,19 @@
         <v>110821</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>93754</v>
+        <v>93758</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>132974</v>
+        <v>131803</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2043790061189298</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1729030330698962</v>
+        <v>0.1729106129652028</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2452338196411761</v>
+        <v>0.2430728889409801</v>
       </c>
     </row>
     <row r="10">
@@ -9480,19 +9480,19 @@
         <v>57570</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>42627</v>
+        <v>43893</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>74960</v>
+        <v>76634</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1023291896551795</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.07576822233818493</v>
+        <v>0.07801987446666987</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1332409973423777</v>
+        <v>0.1362153482407269</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>50</v>
@@ -9501,19 +9501,19 @@
         <v>42025</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>31136</v>
+        <v>31949</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>54111</v>
+        <v>54450</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1147014054843718</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08498089981569848</v>
+        <v>0.08719976692402744</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1476871759014142</v>
+        <v>0.1486143440259615</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>94</v>
@@ -9522,19 +9522,19 @@
         <v>99595</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>78754</v>
+        <v>79224</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>120624</v>
+        <v>122693</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1072087515043336</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08477469010645744</v>
+        <v>0.08528068805896939</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1298460095030524</v>
+        <v>0.132072534868372</v>
       </c>
     </row>
     <row r="12">
@@ -9551,19 +9551,19 @@
         <v>39109</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>26761</v>
+        <v>26890</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>56990</v>
+        <v>56551</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06951613529351131</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04756740729794741</v>
+        <v>0.04779583000958466</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1012981779207305</v>
+        <v>0.1005185138336907</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>43</v>
@@ -9572,19 +9572,19 @@
         <v>35225</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>25946</v>
+        <v>25444</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>45907</v>
+        <v>46795</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.09614132950986899</v>
+        <v>0.09614132950986901</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07081584303055657</v>
+        <v>0.06944685106138905</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1252959900265971</v>
+        <v>0.1277196559971546</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>74</v>
@@ -9593,19 +9593,19 @@
         <v>74334</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>58130</v>
+        <v>59573</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>92719</v>
+        <v>94527</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.0800170256528529</v>
+        <v>0.08001702565285292</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06257419252136259</v>
+        <v>0.06412707674778885</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09980723681409281</v>
+        <v>0.1017531072108248</v>
       </c>
     </row>
     <row r="13">
@@ -9622,19 +9622,19 @@
         <v>55483</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41755</v>
+        <v>41749</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>70440</v>
+        <v>73561</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.09862005392420116</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.07421847747214903</v>
+        <v>0.07420771657478761</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1252060855826887</v>
+        <v>0.130753475710788</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>49</v>
@@ -9643,19 +9643,19 @@
         <v>38235</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28246</v>
+        <v>29046</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>49476</v>
+        <v>48757</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1043581087185156</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0770921144732923</v>
+        <v>0.07927647371356568</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1350362141469583</v>
+        <v>0.1330764390901469</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>96</v>
@@ -9664,19 +9664,19 @@
         <v>93718</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>77072</v>
+        <v>76167</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>114752</v>
+        <v>114773</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1008831241493931</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.08296429923748036</v>
+        <v>0.08199013311740502</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1235244381905657</v>
+        <v>0.123547370597484</v>
       </c>
     </row>
     <row r="14">
@@ -9693,19 +9693,19 @@
         <v>184245</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>158256</v>
+        <v>157514</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>211616</v>
+        <v>211783</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.327493027032054</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2812968930102068</v>
+        <v>0.2799785386391311</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3761438138901814</v>
+        <v>0.3764410825338303</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>114</v>
@@ -9714,19 +9714,19 @@
         <v>86162</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>71640</v>
+        <v>72682</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>100190</v>
+        <v>100258</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2351679857983709</v>
+        <v>0.235167985798371</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1955307346100202</v>
+        <v>0.1983754599344548</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2734551255458724</v>
+        <v>0.2736386542908474</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>259</v>
@@ -9735,19 +9735,19 @@
         <v>270408</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>241444</v>
+        <v>238762</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>301275</v>
+        <v>304530</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2910803298123293</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2599019801769646</v>
+        <v>0.2570155488050024</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3243075621236189</v>
+        <v>0.3278113774550689</v>
       </c>
     </row>
     <row r="15">
@@ -9764,19 +9764,19 @@
         <v>151261</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>127580</v>
+        <v>129875</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>176523</v>
+        <v>177930</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2688641608933516</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.226770920442195</v>
+        <v>0.2308506120690169</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3137665891321422</v>
+        <v>0.3162682031502699</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>124</v>
@@ -9785,19 +9785,19 @@
         <v>97588</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>82549</v>
+        <v>82498</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>113653</v>
+        <v>113352</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.2663527837027597</v>
+        <v>0.2663527837027598</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.2253056169273454</v>
+        <v>0.2251654373473102</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3101985288229762</v>
+        <v>0.309378824125782</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>251</v>
@@ -9806,19 +9806,19 @@
         <v>248849</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>219842</v>
+        <v>220477</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>275940</v>
+        <v>277974</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.2678736818637881</v>
+        <v>0.2678736818637882</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2366492940026932</v>
+        <v>0.2373321907035939</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.297035069430944</v>
+        <v>0.2992248503815142</v>
       </c>
     </row>
     <row r="16">
@@ -9835,19 +9835,19 @@
         <v>74925</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>57402</v>
+        <v>59620</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>93000</v>
+        <v>94993</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1331774332017024</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1020319529792629</v>
+        <v>0.1059731718698892</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1653060092609393</v>
+        <v>0.1688478428716836</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>90</v>
@@ -9856,19 +9856,19 @@
         <v>67151</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55365</v>
+        <v>55070</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>81275</v>
+        <v>80593</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.183278386786113</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1511105415865581</v>
+        <v>0.150305907782394</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2218294562448612</v>
+        <v>0.2199681173655031</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>158</v>
@@ -9877,19 +9877,19 @@
         <v>142075</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>122533</v>
+        <v>120579</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>166153</v>
+        <v>165081</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.152937087017303</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1319002505808989</v>
+        <v>0.1297968224111096</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1788554501937078</v>
+        <v>0.1777011582272013</v>
       </c>
     </row>
     <row r="17">
@@ -9981,19 +9981,19 @@
         <v>39593</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>28356</v>
+        <v>27648</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>54893</v>
+        <v>55802</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1135679715933509</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08133654949099735</v>
+        <v>0.07930510444331947</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1574544737341217</v>
+        <v>0.1600615739727122</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>35</v>
@@ -10002,19 +10002,19 @@
         <v>26980</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>19333</v>
+        <v>19318</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>36632</v>
+        <v>36961</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.09651308732578627</v>
+        <v>0.09651308732578628</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.06915707480163508</v>
+        <v>0.06910372521748985</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1310399804500131</v>
+        <v>0.1322181464427904</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>66</v>
@@ -10023,19 +10023,19 @@
         <v>66573</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>50584</v>
+        <v>51763</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>82385</v>
+        <v>83014</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.105978332435581</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08052468599859659</v>
+        <v>0.08240241114389601</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1311494859016935</v>
+        <v>0.1321506168176153</v>
       </c>
     </row>
     <row r="19">
@@ -10052,19 +10052,19 @@
         <v>20802</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12249</v>
+        <v>12786</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33068</v>
+        <v>34223</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.05966820509619254</v>
+        <v>0.05966820509619253</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03513418983799874</v>
+        <v>0.03667507850104088</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09485238236316787</v>
+        <v>0.0981646511629425</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>25</v>
@@ -10073,19 +10073,19 @@
         <v>19668</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12790</v>
+        <v>13062</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28559</v>
+        <v>28030</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.07035792504499544</v>
+        <v>0.07035792504499545</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04575193153191543</v>
+        <v>0.046727301529386</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1021623743208245</v>
+        <v>0.1002690582416255</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>42</v>
@@ -10094,19 +10094,19 @@
         <v>40470</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>29875</v>
+        <v>28159</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>55671</v>
+        <v>54137</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.06442526564472559</v>
+        <v>0.0644252656447256</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0475587438805223</v>
+        <v>0.04482730546891804</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08862352151383626</v>
+        <v>0.08618227570892097</v>
       </c>
     </row>
     <row r="20">
@@ -10123,19 +10123,19 @@
         <v>39567</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>28764</v>
+        <v>27489</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>56198</v>
+        <v>55032</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1134928834699778</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0825072753861565</v>
+        <v>0.07884851580685617</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1611982644394842</v>
+        <v>0.1578539944691423</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>31</v>
@@ -10144,19 +10144,19 @@
         <v>22111</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>15438</v>
+        <v>15514</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>31208</v>
+        <v>29863</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.07909516806819193</v>
+        <v>0.07909516806819195</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05522623509534857</v>
+        <v>0.05549799949695147</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1116393296418852</v>
+        <v>0.1068266995653602</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>63</v>
@@ -10165,19 +10165,19 @@
         <v>61678</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>47726</v>
+        <v>46354</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>80612</v>
+        <v>78521</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09818546515769284</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07597586837187316</v>
+        <v>0.07379098855358392</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1283282126494761</v>
+        <v>0.1249981636743436</v>
       </c>
     </row>
     <row r="21">
@@ -10194,19 +10194,19 @@
         <v>108101</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>86573</v>
+        <v>88664</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>128541</v>
+        <v>128536</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3100755572613287</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2483228244621153</v>
+        <v>0.2543212249705193</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3687040128164373</v>
+        <v>0.3686910161577632</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>102</v>
@@ -10215,19 +10215,19 @@
         <v>77430</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>65432</v>
+        <v>65030</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>92384</v>
+        <v>91303</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2769860719636256</v>
+        <v>0.2769860719636257</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2340678047535135</v>
+        <v>0.2326297990036461</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3304801295152384</v>
+        <v>0.3266128321228194</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>187</v>
@@ -10236,19 +10236,19 @@
         <v>185531</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>162955</v>
+        <v>164166</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>209773</v>
+        <v>212534</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2953503178879066</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2594106920794583</v>
+        <v>0.2613390042887052</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3339401199307362</v>
+        <v>0.3383355326926193</v>
       </c>
     </row>
     <row r="22">
@@ -10265,19 +10265,19 @@
         <v>85973</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>67553</v>
+        <v>67936</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>104113</v>
+        <v>106224</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.2466023500671591</v>
+        <v>0.246602350067159</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1937674430080193</v>
+        <v>0.1948652589105814</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2986361357404961</v>
+        <v>0.3046892590672942</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>101</v>
@@ -10286,19 +10286,19 @@
         <v>88397</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>74204</v>
+        <v>73580</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>103886</v>
+        <v>103830</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3162160350230125</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2654442358241782</v>
+        <v>0.2632118894194917</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3716245473941679</v>
+        <v>0.3714243351195399</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>168</v>
@@ -10307,19 +10307,19 @@
         <v>174369</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>151256</v>
+        <v>150684</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>199701</v>
+        <v>199192</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2775813201363033</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2407867019677579</v>
+        <v>0.2398769146903324</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3179078432730267</v>
+        <v>0.3170971072811066</v>
       </c>
     </row>
     <row r="23">
@@ -10336,19 +10336,19 @@
         <v>54593</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>39200</v>
+        <v>40848</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>72948</v>
+        <v>73034</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1565930325119911</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1124397484147166</v>
+        <v>0.1171683611660697</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2092432943992975</v>
+        <v>0.2094892804163282</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>60</v>
@@ -10357,19 +10357,19 @@
         <v>44960</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>34755</v>
+        <v>35205</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>56100</v>
+        <v>56827</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1608317125743881</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1243261263986792</v>
+        <v>0.1259371956705483</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2006839791814425</v>
+        <v>0.2032822885253363</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>103</v>
@@ -10378,19 +10378,19 @@
         <v>99553</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>80617</v>
+        <v>81549</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>120111</v>
+        <v>120684</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1584792987377906</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1283354180755832</v>
+        <v>0.1298197440824935</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1912071896476377</v>
+        <v>0.1921190964113354</v>
       </c>
     </row>
     <row r="24">
@@ -10482,19 +10482,19 @@
         <v>88225</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>71697</v>
+        <v>70104</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>105280</v>
+        <v>107144</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.202692770222432</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1647205333845303</v>
+        <v>0.161061427308964</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2418755939941944</v>
+        <v>0.2461578796562205</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>92</v>
@@ -10503,19 +10503,19 @@
         <v>67885</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>55661</v>
+        <v>55536</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>82296</v>
+        <v>81631</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1893907675277552</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1552883504417974</v>
+        <v>0.1549390312836854</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2295960762075704</v>
+        <v>0.2277408228837781</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>176</v>
@@ -10524,19 +10524,19 @@
         <v>156109</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>135243</v>
+        <v>135399</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>179223</v>
+        <v>177119</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.1966855584225278</v>
+        <v>0.1966855584225277</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1703960458533629</v>
+        <v>0.1705917403000581</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.225807571715752</v>
+        <v>0.2231563232319096</v>
       </c>
     </row>
     <row r="26">
@@ -10553,19 +10553,19 @@
         <v>26624</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>17115</v>
+        <v>17834</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>37484</v>
+        <v>38126</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.06116675155399681</v>
+        <v>0.0611667515539968</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03932129837252941</v>
+        <v>0.04097280436145792</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08611677927798581</v>
+        <v>0.08759306613771232</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>41</v>
@@ -10574,19 +10574,19 @@
         <v>29782</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>21996</v>
+        <v>21498</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>38988</v>
+        <v>40003</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08308949604861628</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06136696422131881</v>
+        <v>0.05997587143342401</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.108771498226753</v>
+        <v>0.1116035325795455</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>68</v>
@@ -10595,19 +10595,19 @@
         <v>56406</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>44178</v>
+        <v>44914</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>70667</v>
+        <v>72640</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.07106710809708071</v>
+        <v>0.07106710809708069</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.05566037901955635</v>
+        <v>0.05658771539244675</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08903511954931358</v>
+        <v>0.09152120412274765</v>
       </c>
     </row>
     <row r="27">
@@ -10624,19 +10624,19 @@
         <v>52056</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>38526</v>
+        <v>37595</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>68318</v>
+        <v>68464</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1195968440931101</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08851180906753239</v>
+        <v>0.08637271348919653</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1569586022430148</v>
+        <v>0.1572921945473807</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>35</v>
@@ -10645,19 +10645,19 @@
         <v>25832</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>17604</v>
+        <v>18321</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>35628</v>
+        <v>35595</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.07206890446099601</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04911341426126761</v>
+        <v>0.05111250998646277</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.09939740827907823</v>
+        <v>0.09930481900185328</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>78</v>
@@ -10666,19 +10666,19 @@
         <v>77888</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>62120</v>
+        <v>62447</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>98508</v>
+        <v>96085</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.09813312871606943</v>
+        <v>0.0981331287160694</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07826695018613293</v>
+        <v>0.07867861095796296</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1241129574765373</v>
+        <v>0.121060152868384</v>
       </c>
     </row>
     <row r="28">
@@ -10695,19 +10695,19 @@
         <v>115138</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>96347</v>
+        <v>98325</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>136312</v>
+        <v>135576</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2645256322166573</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2213520321690129</v>
+        <v>0.2258970007017107</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3131709873119815</v>
+        <v>0.3114810461564723</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>93</v>
@@ -10716,19 +10716,19 @@
         <v>70014</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>57529</v>
+        <v>57301</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>84862</v>
+        <v>84814</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1953319471960012</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1604989780745398</v>
+        <v>0.1598625177649453</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2367553683579462</v>
+        <v>0.2366226222357582</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>194</v>
@@ -10737,19 +10737,19 @@
         <v>185152</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>162419</v>
+        <v>161402</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>212985</v>
+        <v>208357</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.2332776216218858</v>
+        <v>0.2332776216218857</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2046348205911458</v>
+        <v>0.2033544720790347</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.268343841130786</v>
+        <v>0.262513156209827</v>
       </c>
     </row>
     <row r="29">
@@ -10766,19 +10766,19 @@
         <v>93071</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>76882</v>
+        <v>76334</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>112319</v>
+        <v>113886</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.213827089523701</v>
+        <v>0.2138270895237009</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1766335607171595</v>
+        <v>0.1753733883566502</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2580477184389355</v>
+        <v>0.2616476178053621</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>115</v>
@@ -10787,19 +10787,19 @@
         <v>89625</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>73447</v>
+        <v>75718</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>104437</v>
+        <v>105170</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2500433231158122</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2049099168787999</v>
+        <v>0.2112437924935533</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2913671731028972</v>
+        <v>0.2934117975783022</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>201</v>
@@ -10808,19 +10808,19 @@
         <v>182696</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>160782</v>
+        <v>159051</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>207802</v>
+        <v>207138</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2301824151672359</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2025725609651251</v>
+        <v>0.2003924426569418</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2618139278847357</v>
+        <v>0.2609781802730772</v>
       </c>
     </row>
     <row r="30">
@@ -10837,19 +10837,19 @@
         <v>60150</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>46185</v>
+        <v>47228</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>77000</v>
+        <v>78802</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1381909123901029</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1061079468385031</v>
+        <v>0.1085053772887258</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1769038265232408</v>
+        <v>0.1810440916757432</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>101</v>
@@ -10858,19 +10858,19 @@
         <v>75299</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>63748</v>
+        <v>63180</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>90271</v>
+        <v>89110</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2100755616508191</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1778499375158723</v>
+        <v>0.1762660791097279</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2518464663511115</v>
+        <v>0.2486072165070134</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>157</v>
@@ -10879,19 +10879,19 @@
         <v>135448</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>117028</v>
+        <v>117127</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>158277</v>
+        <v>158001</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.1706541679752005</v>
+        <v>0.1706541679752004</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1474462339847303</v>
+        <v>0.1475714260319335</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1994163011299489</v>
+        <v>0.1990688479017673</v>
       </c>
     </row>
     <row r="31">
@@ -10983,19 +10983,19 @@
         <v>203777</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>176038</v>
+        <v>177219</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>235129</v>
+        <v>234983</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1226932594074611</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1059917971029224</v>
+        <v>0.106702308488268</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1415699535846175</v>
+        <v>0.1414821356980759</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>204</v>
@@ -11004,19 +11004,19 @@
         <v>159507</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>139623</v>
+        <v>138347</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>181984</v>
+        <v>180093</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1294473240711622</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1133103422169193</v>
+        <v>0.1122743030684119</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.147687916088734</v>
+        <v>0.1461533676238721</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>377</v>
@@ -11025,19 +11025,19 @@
         <v>363285</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>330684</v>
+        <v>330073</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>400907</v>
+        <v>401797</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1255699386021949</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1143015061600166</v>
+        <v>0.1140901824474739</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1385741224837669</v>
+        <v>0.138881655459388</v>
       </c>
     </row>
     <row r="33">
@@ -11054,19 +11054,19 @@
         <v>92881</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>73638</v>
+        <v>72263</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>115952</v>
+        <v>117830</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.05592289566899018</v>
+        <v>0.05592289566899017</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.04433714485394987</v>
+        <v>0.04350911464311017</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.06981380458451103</v>
+        <v>0.07094496033263908</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>116</v>
@@ -11075,19 +11075,19 @@
         <v>89607</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>74749</v>
+        <v>73445</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>108325</v>
+        <v>106340</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.07272001934510197</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.06066224473964733</v>
+        <v>0.05960417438415851</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.08791019425219787</v>
+        <v>0.08629988590754697</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>194</v>
@@ -11096,19 +11096,19 @@
         <v>182488</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>156866</v>
+        <v>159512</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>212810</v>
+        <v>211906</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.06307709667481273</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.05422086951412791</v>
+        <v>0.05513569345644997</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.07355818161021301</v>
+        <v>0.07324545481040859</v>
       </c>
     </row>
     <row r="34">
@@ -11125,19 +11125,19 @@
         <v>171485</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>147618</v>
+        <v>144802</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>204543</v>
+        <v>200785</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1032499619303539</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08887986108924895</v>
+        <v>0.08718435322859674</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.123153993052448</v>
+        <v>0.1208917603225302</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>138</v>
@@ -11146,19 +11146,19 @@
         <v>104526</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>89003</v>
+        <v>88471</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>122737</v>
+        <v>122307</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.0848274873147836</v>
+        <v>0.08482748731478358</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.07222971057381107</v>
+        <v>0.0717982421165677</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.09960638350416028</v>
+        <v>0.09925787181575178</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>281</v>
@@ -11167,19 +11167,19 @@
         <v>276011</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>243744</v>
+        <v>244985</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>309216</v>
+        <v>307334</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.09540349434662754</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08425033282085091</v>
+        <v>0.08467948667287843</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1068808072420404</v>
+        <v>0.1062303541676285</v>
       </c>
     </row>
     <row r="35">
@@ -11196,19 +11196,19 @@
         <v>493370</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>453484</v>
+        <v>449782</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>538508</v>
+        <v>536921</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2970551810272193</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2730403281089009</v>
+        <v>0.2708113944548224</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3242328132546382</v>
+        <v>0.3232768615090856</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>391</v>
@@ -11217,19 +11217,19 @@
         <v>286235</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>261954</v>
+        <v>259572</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>315253</v>
+        <v>311329</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2322924087333919</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2125872343619967</v>
+        <v>0.2106544821049176</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2558416730223357</v>
+        <v>0.2526571333697042</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>795</v>
@@ -11238,19 +11238,19 @@
         <v>779605</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>730042</v>
+        <v>728450</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>830711</v>
+        <v>827264</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2694715363736241</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2523400863533834</v>
+        <v>0.2517897949255847</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2871364737040534</v>
+        <v>0.285945145365679</v>
       </c>
     </row>
     <row r="36">
@@ -11267,19 +11267,19 @@
         <v>446851</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>405292</v>
+        <v>405267</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>486911</v>
+        <v>485481</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2690463238169913</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2440238380122508</v>
+        <v>0.2440090148545582</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2931662338722441</v>
+        <v>0.2923052017287391</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>453</v>
@@ -11288,19 +11288,19 @@
         <v>356952</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>326386</v>
+        <v>326639</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>385633</v>
+        <v>385876</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2896820217589998</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2648762655946572</v>
+        <v>0.2650816015431022</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.3129584331414471</v>
+        <v>0.313155117188668</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>846</v>
@@ -11309,19 +11309,19 @@
         <v>803802</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>757631</v>
+        <v>759499</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>852388</v>
+        <v>854835</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2778354435388711</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.261876308186523</v>
+        <v>0.2625218899452494</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2946291619004043</v>
+        <v>0.295475005844423</v>
       </c>
     </row>
     <row r="37">
@@ -11338,19 +11338,19 @@
         <v>252506</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>221271</v>
+        <v>223571</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>284158</v>
+        <v>285063</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1520323781489842</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1332262209808324</v>
+        <v>0.1346108694228641</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1710901473123147</v>
+        <v>0.171635019190668</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>319</v>
@@ -11359,19 +11359,19 @@
         <v>235392</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>210378</v>
+        <v>211118</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>259312</v>
+        <v>258549</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1910307387765605</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1707309928035102</v>
+        <v>0.1713312928155907</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2104431566064321</v>
+        <v>0.209824108062577</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>547</v>
@@ -11380,19 +11380,19 @@
         <v>487898</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>449945</v>
+        <v>448840</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>530327</v>
+        <v>528792</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1686424904638696</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1555242649168891</v>
+        <v>0.1551422750998672</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1833083705280817</v>
+        <v>0.1827778778713513</v>
       </c>
     </row>
     <row r="38">
